--- a/src/main/resources/ja/TestSpec.xlsx
+++ b/src/main/resources/ja/TestSpec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/ja/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CF210A-5A8B-7F4C-90D7-BC098219D9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BEE5AC-1C14-034F-80C4-B1AFEF912183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26540" yWindow="3560" windowWidth="39920" windowHeight="28500" activeTab="3" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21160" activeTab="1" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
   <sheets>
     <sheet name="CommandList" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="List" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="実施結果">List!$A$3:$A$12</definedName>
+    <definedName name="実施結果">List!$A$3:$A$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
   <si>
     <t>OK</t>
     <phoneticPr fontId="5"/>
@@ -130,10 +130,6 @@
   </si>
   <si>
     <t>M</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>A+M</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -564,6 +560,65 @@
   </si>
   <si>
     <t>Platform Version</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>COND_AUTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件を満たした場合は自動テストを実行し、検証に成功した場合はOKに置き換わります。それ以外は手動でテストが必要（自動テストの実行結果出力時に使用します）</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケn</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミタセィ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オキカワリ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="62" eb="66">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="66" eb="69">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>COND_AUTO</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CA</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>A+CA+M</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1461,7 +1516,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{C40AA10B-FA57-1748-8D8E-3E12991DC054}"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="42">
     <dxf>
       <fill>
         <patternFill>
@@ -1507,21 +1562,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFBDD7EE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1556,7 +1597,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1577,6 +1618,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1589,14 +1651,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1620,7 +1682,42 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFA0D8EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEE82EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBDD7EE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1634,35 +1731,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFBDD7EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEE82EE"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1670,13 +1739,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0D8EF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1702,14 +1764,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1750,6 +1812,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBDD7EE"/>
+      <color rgb="FFA0D8EF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1762,9 +1830,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1802,7 +1870,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1908,7 +1976,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2050,7 +2118,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2084,16 +2152,16 @@
   <sheetData>
     <row r="3" spans="1:12">
       <c r="A3" s="98" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="C3" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="D3" s="98" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="98" t="s">
-        <v>28</v>
       </c>
       <c r="E3" s="98" t="s">
         <v>7</v>
@@ -2102,22 +2170,22 @@
         <v>10</v>
       </c>
       <c r="G3" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="98" t="s">
+      <c r="I3" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="98" t="s">
+      <c r="J3" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="K3" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="98" t="s">
+      <c r="L3" s="98" t="s">
         <v>33</v>
-      </c>
-      <c r="L3" s="98" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2128,9 +2196,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92274D22-EDA0-BF40-BFA2-FCB7B06DA8AB}">
-  <dimension ref="A1:P104"/>
+  <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -2139,26 +2207,26 @@
     <col min="1" max="1" width="4.5703125" style="53" customWidth="1"/>
     <col min="2" max="2" width="22.140625" style="53" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" style="53" customWidth="1"/>
-    <col min="4" max="12" width="8.28515625" style="53" customWidth="1"/>
-    <col min="13" max="15" width="6.42578125" style="53"/>
-    <col min="16" max="16" width="9.5703125" style="53" customWidth="1"/>
-    <col min="17" max="16384" width="6.42578125" style="53"/>
+    <col min="4" max="13" width="8.28515625" style="53" customWidth="1"/>
+    <col min="14" max="17" width="7.42578125" style="53" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="53" customWidth="1"/>
+    <col min="19" max="16384" width="6.42578125" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22">
+    <row r="1" spans="1:18" ht="22">
       <c r="A1" s="122"/>
       <c r="B1" s="122"/>
       <c r="C1" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16" thickBot="1"/>
-    <row r="3" spans="1:16" ht="16" customHeight="1" thickBot="1">
+    <row r="2" spans="1:18" ht="16" thickBot="1"/>
+    <row r="3" spans="1:18" ht="16" customHeight="1" thickBot="1">
       <c r="D3" s="54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="95" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="55" t="s">
         <v>0</v>
@@ -2170,36 +2238,42 @@
         <v>4</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="59" t="s">
+      <c r="L3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="M3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="N3" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="61" t="s">
+      <c r="O3" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="61" t="s">
+      <c r="Q3" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="73" customFormat="1" ht="16" thickBot="1">
+      <c r="A4" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="61" t="s">
+      <c r="B4" s="63" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="73" customFormat="1" ht="16" thickBot="1">
-      <c r="A4" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="63" t="s">
-        <v>71</v>
       </c>
       <c r="C4" s="63" t="s">
         <v>11</v>
@@ -2225,13 +2299,13 @@
       <c r="J4" s="69">
         <v>0</v>
       </c>
-      <c r="K4" s="70">
+      <c r="K4" s="69">
         <v>0</v>
       </c>
       <c r="L4" s="70">
         <v>0</v>
       </c>
-      <c r="M4" s="71">
+      <c r="M4" s="70">
         <v>0</v>
       </c>
       <c r="N4" s="71">
@@ -2240,11 +2314,17 @@
       <c r="O4" s="71">
         <v>0</v>
       </c>
-      <c r="P4" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="16" thickTop="1">
+      <c r="P4" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="71">
+        <v>0</v>
+      </c>
+      <c r="R4" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="16" thickTop="1">
       <c r="A5" s="74"/>
       <c r="B5" s="75"/>
       <c r="C5" s="76"/>
@@ -2269,13 +2349,13 @@
       <c r="J5" s="82">
         <v>0</v>
       </c>
-      <c r="K5" s="83">
+      <c r="K5" s="82">
         <v>0</v>
       </c>
       <c r="L5" s="83">
         <v>0</v>
       </c>
-      <c r="M5" s="84">
+      <c r="M5" s="83">
         <v>0</v>
       </c>
       <c r="N5" s="84">
@@ -2284,11 +2364,17 @@
       <c r="O5" s="84">
         <v>0</v>
       </c>
-      <c r="P5" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="84">
+        <v>0</v>
+      </c>
+      <c r="R5" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="74"/>
       <c r="B6" s="75"/>
       <c r="C6" s="76"/>
@@ -2313,13 +2399,13 @@
       <c r="J6" s="82">
         <v>0</v>
       </c>
-      <c r="K6" s="83">
+      <c r="K6" s="82">
         <v>0</v>
       </c>
       <c r="L6" s="83">
         <v>0</v>
       </c>
-      <c r="M6" s="84">
+      <c r="M6" s="83">
         <v>0</v>
       </c>
       <c r="N6" s="84">
@@ -2328,11 +2414,17 @@
       <c r="O6" s="84">
         <v>0</v>
       </c>
-      <c r="P6" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="P6" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="84">
+        <v>0</v>
+      </c>
+      <c r="R6" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="74"/>
       <c r="B7" s="75"/>
       <c r="C7" s="76"/>
@@ -2357,13 +2449,13 @@
       <c r="J7" s="82">
         <v>0</v>
       </c>
-      <c r="K7" s="83">
+      <c r="K7" s="82">
         <v>0</v>
       </c>
       <c r="L7" s="83">
         <v>0</v>
       </c>
-      <c r="M7" s="84">
+      <c r="M7" s="83">
         <v>0</v>
       </c>
       <c r="N7" s="84">
@@ -2372,11 +2464,17 @@
       <c r="O7" s="84">
         <v>0</v>
       </c>
-      <c r="P7" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="84">
+        <v>0</v>
+      </c>
+      <c r="R7" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="74"/>
       <c r="B8" s="75"/>
       <c r="C8" s="76"/>
@@ -2401,13 +2499,13 @@
       <c r="J8" s="82">
         <v>0</v>
       </c>
-      <c r="K8" s="83">
+      <c r="K8" s="82">
         <v>0</v>
       </c>
       <c r="L8" s="83">
         <v>0</v>
       </c>
-      <c r="M8" s="84">
+      <c r="M8" s="83">
         <v>0</v>
       </c>
       <c r="N8" s="84">
@@ -2416,11 +2514,17 @@
       <c r="O8" s="84">
         <v>0</v>
       </c>
-      <c r="P8" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="84">
+        <v>0</v>
+      </c>
+      <c r="R8" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="74"/>
       <c r="B9" s="75"/>
       <c r="C9" s="76"/>
@@ -2445,13 +2549,13 @@
       <c r="J9" s="82">
         <v>0</v>
       </c>
-      <c r="K9" s="83">
+      <c r="K9" s="82">
         <v>0</v>
       </c>
       <c r="L9" s="83">
         <v>0</v>
       </c>
-      <c r="M9" s="84">
+      <c r="M9" s="83">
         <v>0</v>
       </c>
       <c r="N9" s="84">
@@ -2460,11 +2564,17 @@
       <c r="O9" s="84">
         <v>0</v>
       </c>
-      <c r="P9" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="84">
+        <v>0</v>
+      </c>
+      <c r="R9" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="74"/>
       <c r="B10" s="75"/>
       <c r="C10" s="76"/>
@@ -2489,13 +2599,13 @@
       <c r="J10" s="82">
         <v>0</v>
       </c>
-      <c r="K10" s="83">
+      <c r="K10" s="82">
         <v>0</v>
       </c>
       <c r="L10" s="83">
         <v>0</v>
       </c>
-      <c r="M10" s="84">
+      <c r="M10" s="83">
         <v>0</v>
       </c>
       <c r="N10" s="84">
@@ -2504,11 +2614,17 @@
       <c r="O10" s="84">
         <v>0</v>
       </c>
-      <c r="P10" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="84">
+        <v>0</v>
+      </c>
+      <c r="R10" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="74"/>
       <c r="B11" s="75"/>
       <c r="C11" s="76"/>
@@ -2533,13 +2649,13 @@
       <c r="J11" s="82">
         <v>0</v>
       </c>
-      <c r="K11" s="83">
+      <c r="K11" s="82">
         <v>0</v>
       </c>
       <c r="L11" s="83">
         <v>0</v>
       </c>
-      <c r="M11" s="84">
+      <c r="M11" s="83">
         <v>0</v>
       </c>
       <c r="N11" s="84">
@@ -2548,11 +2664,17 @@
       <c r="O11" s="84">
         <v>0</v>
       </c>
-      <c r="P11" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="P11" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="84">
+        <v>0</v>
+      </c>
+      <c r="R11" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="74"/>
       <c r="B12" s="75"/>
       <c r="C12" s="76"/>
@@ -2577,13 +2699,13 @@
       <c r="J12" s="82">
         <v>0</v>
       </c>
-      <c r="K12" s="83">
+      <c r="K12" s="82">
         <v>0</v>
       </c>
       <c r="L12" s="83">
         <v>0</v>
       </c>
-      <c r="M12" s="84">
+      <c r="M12" s="83">
         <v>0</v>
       </c>
       <c r="N12" s="84">
@@ -2592,11 +2714,17 @@
       <c r="O12" s="84">
         <v>0</v>
       </c>
-      <c r="P12" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="P12" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="84">
+        <v>0</v>
+      </c>
+      <c r="R12" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="74"/>
       <c r="B13" s="75"/>
       <c r="C13" s="76"/>
@@ -2621,13 +2749,13 @@
       <c r="J13" s="82">
         <v>0</v>
       </c>
-      <c r="K13" s="83">
+      <c r="K13" s="82">
         <v>0</v>
       </c>
       <c r="L13" s="83">
         <v>0</v>
       </c>
-      <c r="M13" s="84">
+      <c r="M13" s="83">
         <v>0</v>
       </c>
       <c r="N13" s="84">
@@ -2636,11 +2764,17 @@
       <c r="O13" s="84">
         <v>0</v>
       </c>
-      <c r="P13" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="P13" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="84">
+        <v>0</v>
+      </c>
+      <c r="R13" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="74"/>
       <c r="B14" s="75"/>
       <c r="C14" s="76"/>
@@ -2665,13 +2799,13 @@
       <c r="J14" s="82">
         <v>0</v>
       </c>
-      <c r="K14" s="83">
+      <c r="K14" s="82">
         <v>0</v>
       </c>
       <c r="L14" s="83">
         <v>0</v>
       </c>
-      <c r="M14" s="84">
+      <c r="M14" s="83">
         <v>0</v>
       </c>
       <c r="N14" s="84">
@@ -2680,11 +2814,17 @@
       <c r="O14" s="84">
         <v>0</v>
       </c>
-      <c r="P14" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="P14" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="84">
+        <v>0</v>
+      </c>
+      <c r="R14" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="74"/>
       <c r="B15" s="75"/>
       <c r="C15" s="76"/>
@@ -2709,13 +2849,13 @@
       <c r="J15" s="82">
         <v>0</v>
       </c>
-      <c r="K15" s="83">
+      <c r="K15" s="82">
         <v>0</v>
       </c>
       <c r="L15" s="83">
         <v>0</v>
       </c>
-      <c r="M15" s="84">
+      <c r="M15" s="83">
         <v>0</v>
       </c>
       <c r="N15" s="84">
@@ -2724,11 +2864,17 @@
       <c r="O15" s="84">
         <v>0</v>
       </c>
-      <c r="P15" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="P15" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="84">
+        <v>0</v>
+      </c>
+      <c r="R15" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="74"/>
       <c r="B16" s="75"/>
       <c r="C16" s="76"/>
@@ -2753,13 +2899,13 @@
       <c r="J16" s="82">
         <v>0</v>
       </c>
-      <c r="K16" s="83">
+      <c r="K16" s="82">
         <v>0</v>
       </c>
       <c r="L16" s="83">
         <v>0</v>
       </c>
-      <c r="M16" s="84">
+      <c r="M16" s="83">
         <v>0</v>
       </c>
       <c r="N16" s="84">
@@ -2768,11 +2914,17 @@
       <c r="O16" s="84">
         <v>0</v>
       </c>
-      <c r="P16" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="P16" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="84">
+        <v>0</v>
+      </c>
+      <c r="R16" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="74"/>
       <c r="B17" s="75"/>
       <c r="C17" s="76"/>
@@ -2797,13 +2949,13 @@
       <c r="J17" s="82">
         <v>0</v>
       </c>
-      <c r="K17" s="83">
+      <c r="K17" s="82">
         <v>0</v>
       </c>
       <c r="L17" s="83">
         <v>0</v>
       </c>
-      <c r="M17" s="84">
+      <c r="M17" s="83">
         <v>0</v>
       </c>
       <c r="N17" s="84">
@@ -2812,11 +2964,17 @@
       <c r="O17" s="84">
         <v>0</v>
       </c>
-      <c r="P17" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="P17" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="84">
+        <v>0</v>
+      </c>
+      <c r="R17" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="74"/>
       <c r="B18" s="75"/>
       <c r="C18" s="76"/>
@@ -2841,13 +2999,13 @@
       <c r="J18" s="82">
         <v>0</v>
       </c>
-      <c r="K18" s="83">
+      <c r="K18" s="82">
         <v>0</v>
       </c>
       <c r="L18" s="83">
         <v>0</v>
       </c>
-      <c r="M18" s="84">
+      <c r="M18" s="83">
         <v>0</v>
       </c>
       <c r="N18" s="84">
@@ -2856,11 +3014,17 @@
       <c r="O18" s="84">
         <v>0</v>
       </c>
-      <c r="P18" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="P18" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="84">
+        <v>0</v>
+      </c>
+      <c r="R18" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="74"/>
       <c r="B19" s="75"/>
       <c r="C19" s="76"/>
@@ -2885,13 +3049,13 @@
       <c r="J19" s="82">
         <v>0</v>
       </c>
-      <c r="K19" s="83">
+      <c r="K19" s="82">
         <v>0</v>
       </c>
       <c r="L19" s="83">
         <v>0</v>
       </c>
-      <c r="M19" s="84">
+      <c r="M19" s="83">
         <v>0</v>
       </c>
       <c r="N19" s="84">
@@ -2900,11 +3064,17 @@
       <c r="O19" s="84">
         <v>0</v>
       </c>
-      <c r="P19" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="P19" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="84">
+        <v>0</v>
+      </c>
+      <c r="R19" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="74"/>
       <c r="B20" s="75"/>
       <c r="C20" s="76"/>
@@ -2929,13 +3099,13 @@
       <c r="J20" s="82">
         <v>0</v>
       </c>
-      <c r="K20" s="83">
+      <c r="K20" s="82">
         <v>0</v>
       </c>
       <c r="L20" s="83">
         <v>0</v>
       </c>
-      <c r="M20" s="84">
+      <c r="M20" s="83">
         <v>0</v>
       </c>
       <c r="N20" s="84">
@@ -2944,11 +3114,17 @@
       <c r="O20" s="84">
         <v>0</v>
       </c>
-      <c r="P20" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="P20" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="84">
+        <v>0</v>
+      </c>
+      <c r="R20" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="74"/>
       <c r="B21" s="75"/>
       <c r="C21" s="76"/>
@@ -2973,13 +3149,13 @@
       <c r="J21" s="82">
         <v>0</v>
       </c>
-      <c r="K21" s="83">
+      <c r="K21" s="82">
         <v>0</v>
       </c>
       <c r="L21" s="83">
         <v>0</v>
       </c>
-      <c r="M21" s="84">
+      <c r="M21" s="83">
         <v>0</v>
       </c>
       <c r="N21" s="84">
@@ -2988,11 +3164,17 @@
       <c r="O21" s="84">
         <v>0</v>
       </c>
-      <c r="P21" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="P21" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="84">
+        <v>0</v>
+      </c>
+      <c r="R21" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="74"/>
       <c r="B22" s="75"/>
       <c r="C22" s="76"/>
@@ -3017,13 +3199,13 @@
       <c r="J22" s="82">
         <v>0</v>
       </c>
-      <c r="K22" s="83">
+      <c r="K22" s="82">
         <v>0</v>
       </c>
       <c r="L22" s="83">
         <v>0</v>
       </c>
-      <c r="M22" s="84">
+      <c r="M22" s="83">
         <v>0</v>
       </c>
       <c r="N22" s="84">
@@ -3032,11 +3214,17 @@
       <c r="O22" s="84">
         <v>0</v>
       </c>
-      <c r="P22" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="P22" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="84">
+        <v>0</v>
+      </c>
+      <c r="R22" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="74"/>
       <c r="B23" s="75"/>
       <c r="C23" s="76"/>
@@ -3061,13 +3249,13 @@
       <c r="J23" s="82">
         <v>0</v>
       </c>
-      <c r="K23" s="83">
+      <c r="K23" s="82">
         <v>0</v>
       </c>
       <c r="L23" s="83">
         <v>0</v>
       </c>
-      <c r="M23" s="84">
+      <c r="M23" s="83">
         <v>0</v>
       </c>
       <c r="N23" s="84">
@@ -3076,11 +3264,17 @@
       <c r="O23" s="84">
         <v>0</v>
       </c>
-      <c r="P23" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="P23" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="84">
+        <v>0</v>
+      </c>
+      <c r="R23" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="74"/>
       <c r="B24" s="75"/>
       <c r="C24" s="76"/>
@@ -3105,13 +3299,13 @@
       <c r="J24" s="82">
         <v>0</v>
       </c>
-      <c r="K24" s="83">
+      <c r="K24" s="82">
         <v>0</v>
       </c>
       <c r="L24" s="83">
         <v>0</v>
       </c>
-      <c r="M24" s="84">
+      <c r="M24" s="83">
         <v>0</v>
       </c>
       <c r="N24" s="84">
@@ -3120,11 +3314,17 @@
       <c r="O24" s="84">
         <v>0</v>
       </c>
-      <c r="P24" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="P24" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="84">
+        <v>0</v>
+      </c>
+      <c r="R24" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="74"/>
       <c r="B25" s="75"/>
       <c r="C25" s="76"/>
@@ -3149,13 +3349,13 @@
       <c r="J25" s="82">
         <v>0</v>
       </c>
-      <c r="K25" s="83">
+      <c r="K25" s="82">
         <v>0</v>
       </c>
       <c r="L25" s="83">
         <v>0</v>
       </c>
-      <c r="M25" s="84">
+      <c r="M25" s="83">
         <v>0</v>
       </c>
       <c r="N25" s="84">
@@ -3164,11 +3364,17 @@
       <c r="O25" s="84">
         <v>0</v>
       </c>
-      <c r="P25" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="P25" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="84">
+        <v>0</v>
+      </c>
+      <c r="R25" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
       <c r="C26" s="76"/>
@@ -3193,13 +3399,13 @@
       <c r="J26" s="82">
         <v>0</v>
       </c>
-      <c r="K26" s="83">
+      <c r="K26" s="82">
         <v>0</v>
       </c>
       <c r="L26" s="83">
         <v>0</v>
       </c>
-      <c r="M26" s="84">
+      <c r="M26" s="83">
         <v>0</v>
       </c>
       <c r="N26" s="84">
@@ -3208,11 +3414,17 @@
       <c r="O26" s="84">
         <v>0</v>
       </c>
-      <c r="P26" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="P26" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="84">
+        <v>0</v>
+      </c>
+      <c r="R26" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="74"/>
       <c r="B27" s="75"/>
       <c r="C27" s="76"/>
@@ -3237,13 +3449,13 @@
       <c r="J27" s="82">
         <v>0</v>
       </c>
-      <c r="K27" s="83">
+      <c r="K27" s="82">
         <v>0</v>
       </c>
       <c r="L27" s="83">
         <v>0</v>
       </c>
-      <c r="M27" s="84">
+      <c r="M27" s="83">
         <v>0</v>
       </c>
       <c r="N27" s="84">
@@ -3252,11 +3464,17 @@
       <c r="O27" s="84">
         <v>0</v>
       </c>
-      <c r="P27" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="P27" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="84">
+        <v>0</v>
+      </c>
+      <c r="R27" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="74"/>
       <c r="B28" s="75"/>
       <c r="C28" s="76"/>
@@ -3281,13 +3499,13 @@
       <c r="J28" s="82">
         <v>0</v>
       </c>
-      <c r="K28" s="83">
+      <c r="K28" s="82">
         <v>0</v>
       </c>
       <c r="L28" s="83">
         <v>0</v>
       </c>
-      <c r="M28" s="84">
+      <c r="M28" s="83">
         <v>0</v>
       </c>
       <c r="N28" s="84">
@@ -3296,11 +3514,17 @@
       <c r="O28" s="84">
         <v>0</v>
       </c>
-      <c r="P28" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="P28" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="84">
+        <v>0</v>
+      </c>
+      <c r="R28" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="74"/>
       <c r="B29" s="75"/>
       <c r="C29" s="76"/>
@@ -3325,13 +3549,13 @@
       <c r="J29" s="82">
         <v>0</v>
       </c>
-      <c r="K29" s="83">
+      <c r="K29" s="82">
         <v>0</v>
       </c>
       <c r="L29" s="83">
         <v>0</v>
       </c>
-      <c r="M29" s="84">
+      <c r="M29" s="83">
         <v>0</v>
       </c>
       <c r="N29" s="84">
@@ -3340,11 +3564,17 @@
       <c r="O29" s="84">
         <v>0</v>
       </c>
-      <c r="P29" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="P29" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="84">
+        <v>0</v>
+      </c>
+      <c r="R29" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="74"/>
       <c r="B30" s="75"/>
       <c r="C30" s="76"/>
@@ -3369,13 +3599,13 @@
       <c r="J30" s="82">
         <v>0</v>
       </c>
-      <c r="K30" s="83">
+      <c r="K30" s="82">
         <v>0</v>
       </c>
       <c r="L30" s="83">
         <v>0</v>
       </c>
-      <c r="M30" s="84">
+      <c r="M30" s="83">
         <v>0</v>
       </c>
       <c r="N30" s="84">
@@ -3384,11 +3614,17 @@
       <c r="O30" s="84">
         <v>0</v>
       </c>
-      <c r="P30" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="P30" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="84">
+        <v>0</v>
+      </c>
+      <c r="R30" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="74"/>
       <c r="B31" s="75"/>
       <c r="C31" s="76"/>
@@ -3413,13 +3649,13 @@
       <c r="J31" s="82">
         <v>0</v>
       </c>
-      <c r="K31" s="83">
+      <c r="K31" s="82">
         <v>0</v>
       </c>
       <c r="L31" s="83">
         <v>0</v>
       </c>
-      <c r="M31" s="84">
+      <c r="M31" s="83">
         <v>0</v>
       </c>
       <c r="N31" s="84">
@@ -3428,11 +3664,17 @@
       <c r="O31" s="84">
         <v>0</v>
       </c>
-      <c r="P31" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="P31" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="84">
+        <v>0</v>
+      </c>
+      <c r="R31" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="74"/>
       <c r="B32" s="75"/>
       <c r="C32" s="76"/>
@@ -3457,13 +3699,13 @@
       <c r="J32" s="82">
         <v>0</v>
       </c>
-      <c r="K32" s="83">
+      <c r="K32" s="82">
         <v>0</v>
       </c>
       <c r="L32" s="83">
         <v>0</v>
       </c>
-      <c r="M32" s="84">
+      <c r="M32" s="83">
         <v>0</v>
       </c>
       <c r="N32" s="84">
@@ -3472,11 +3714,17 @@
       <c r="O32" s="84">
         <v>0</v>
       </c>
-      <c r="P32" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="P32" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="84">
+        <v>0</v>
+      </c>
+      <c r="R32" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="74"/>
       <c r="B33" s="75"/>
       <c r="C33" s="76"/>
@@ -3501,13 +3749,13 @@
       <c r="J33" s="82">
         <v>0</v>
       </c>
-      <c r="K33" s="83">
+      <c r="K33" s="82">
         <v>0</v>
       </c>
       <c r="L33" s="83">
         <v>0</v>
       </c>
-      <c r="M33" s="84">
+      <c r="M33" s="83">
         <v>0</v>
       </c>
       <c r="N33" s="84">
@@ -3516,11 +3764,17 @@
       <c r="O33" s="84">
         <v>0</v>
       </c>
-      <c r="P33" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="P33" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="84">
+        <v>0</v>
+      </c>
+      <c r="R33" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="74"/>
       <c r="B34" s="75"/>
       <c r="C34" s="76"/>
@@ -3545,13 +3799,13 @@
       <c r="J34" s="82">
         <v>0</v>
       </c>
-      <c r="K34" s="83">
+      <c r="K34" s="82">
         <v>0</v>
       </c>
       <c r="L34" s="83">
         <v>0</v>
       </c>
-      <c r="M34" s="84">
+      <c r="M34" s="83">
         <v>0</v>
       </c>
       <c r="N34" s="84">
@@ -3560,11 +3814,17 @@
       <c r="O34" s="84">
         <v>0</v>
       </c>
-      <c r="P34" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="P34" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="84">
+        <v>0</v>
+      </c>
+      <c r="R34" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="74"/>
       <c r="B35" s="75"/>
       <c r="C35" s="76"/>
@@ -3589,13 +3849,13 @@
       <c r="J35" s="82">
         <v>0</v>
       </c>
-      <c r="K35" s="83">
+      <c r="K35" s="82">
         <v>0</v>
       </c>
       <c r="L35" s="83">
         <v>0</v>
       </c>
-      <c r="M35" s="84">
+      <c r="M35" s="83">
         <v>0</v>
       </c>
       <c r="N35" s="84">
@@ -3604,11 +3864,17 @@
       <c r="O35" s="84">
         <v>0</v>
       </c>
-      <c r="P35" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="P35" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="84">
+        <v>0</v>
+      </c>
+      <c r="R35" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="74"/>
       <c r="B36" s="75"/>
       <c r="C36" s="76"/>
@@ -3633,13 +3899,13 @@
       <c r="J36" s="82">
         <v>0</v>
       </c>
-      <c r="K36" s="83">
+      <c r="K36" s="82">
         <v>0</v>
       </c>
       <c r="L36" s="83">
         <v>0</v>
       </c>
-      <c r="M36" s="84">
+      <c r="M36" s="83">
         <v>0</v>
       </c>
       <c r="N36" s="84">
@@ -3648,11 +3914,17 @@
       <c r="O36" s="84">
         <v>0</v>
       </c>
-      <c r="P36" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="P36" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="84">
+        <v>0</v>
+      </c>
+      <c r="R36" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="74"/>
       <c r="B37" s="75"/>
       <c r="C37" s="76"/>
@@ -3677,13 +3949,13 @@
       <c r="J37" s="82">
         <v>0</v>
       </c>
-      <c r="K37" s="83">
+      <c r="K37" s="82">
         <v>0</v>
       </c>
       <c r="L37" s="83">
         <v>0</v>
       </c>
-      <c r="M37" s="84">
+      <c r="M37" s="83">
         <v>0</v>
       </c>
       <c r="N37" s="84">
@@ -3692,11 +3964,17 @@
       <c r="O37" s="84">
         <v>0</v>
       </c>
-      <c r="P37" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="P37" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="84">
+        <v>0</v>
+      </c>
+      <c r="R37" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="74"/>
       <c r="B38" s="75"/>
       <c r="C38" s="76"/>
@@ -3721,13 +3999,13 @@
       <c r="J38" s="82">
         <v>0</v>
       </c>
-      <c r="K38" s="83">
+      <c r="K38" s="82">
         <v>0</v>
       </c>
       <c r="L38" s="83">
         <v>0</v>
       </c>
-      <c r="M38" s="84">
+      <c r="M38" s="83">
         <v>0</v>
       </c>
       <c r="N38" s="84">
@@ -3736,11 +4014,17 @@
       <c r="O38" s="84">
         <v>0</v>
       </c>
-      <c r="P38" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="P38" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="84">
+        <v>0</v>
+      </c>
+      <c r="R38" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="74"/>
       <c r="B39" s="75"/>
       <c r="C39" s="76"/>
@@ -3765,13 +4049,13 @@
       <c r="J39" s="82">
         <v>0</v>
       </c>
-      <c r="K39" s="83">
+      <c r="K39" s="82">
         <v>0</v>
       </c>
       <c r="L39" s="83">
         <v>0</v>
       </c>
-      <c r="M39" s="84">
+      <c r="M39" s="83">
         <v>0</v>
       </c>
       <c r="N39" s="84">
@@ -3780,11 +4064,17 @@
       <c r="O39" s="84">
         <v>0</v>
       </c>
-      <c r="P39" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="P39" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="84">
+        <v>0</v>
+      </c>
+      <c r="R39" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="74"/>
       <c r="B40" s="75"/>
       <c r="C40" s="76"/>
@@ -3809,13 +4099,13 @@
       <c r="J40" s="82">
         <v>0</v>
       </c>
-      <c r="K40" s="83">
+      <c r="K40" s="82">
         <v>0</v>
       </c>
       <c r="L40" s="83">
         <v>0</v>
       </c>
-      <c r="M40" s="84">
+      <c r="M40" s="83">
         <v>0</v>
       </c>
       <c r="N40" s="84">
@@ -3824,11 +4114,17 @@
       <c r="O40" s="84">
         <v>0</v>
       </c>
-      <c r="P40" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="P40" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="84">
+        <v>0</v>
+      </c>
+      <c r="R40" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="74"/>
       <c r="B41" s="75"/>
       <c r="C41" s="76"/>
@@ -3853,13 +4149,13 @@
       <c r="J41" s="82">
         <v>0</v>
       </c>
-      <c r="K41" s="83">
+      <c r="K41" s="82">
         <v>0</v>
       </c>
       <c r="L41" s="83">
         <v>0</v>
       </c>
-      <c r="M41" s="84">
+      <c r="M41" s="83">
         <v>0</v>
       </c>
       <c r="N41" s="84">
@@ -3868,11 +4164,17 @@
       <c r="O41" s="84">
         <v>0</v>
       </c>
-      <c r="P41" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="P41" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="84">
+        <v>0</v>
+      </c>
+      <c r="R41" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="74"/>
       <c r="B42" s="75"/>
       <c r="C42" s="76"/>
@@ -3897,13 +4199,13 @@
       <c r="J42" s="82">
         <v>0</v>
       </c>
-      <c r="K42" s="83">
+      <c r="K42" s="82">
         <v>0</v>
       </c>
       <c r="L42" s="83">
         <v>0</v>
       </c>
-      <c r="M42" s="84">
+      <c r="M42" s="83">
         <v>0</v>
       </c>
       <c r="N42" s="84">
@@ -3912,11 +4214,17 @@
       <c r="O42" s="84">
         <v>0</v>
       </c>
-      <c r="P42" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="P42" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="84">
+        <v>0</v>
+      </c>
+      <c r="R42" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="74"/>
       <c r="B43" s="75"/>
       <c r="C43" s="76"/>
@@ -3941,13 +4249,13 @@
       <c r="J43" s="82">
         <v>0</v>
       </c>
-      <c r="K43" s="83">
+      <c r="K43" s="82">
         <v>0</v>
       </c>
       <c r="L43" s="83">
         <v>0</v>
       </c>
-      <c r="M43" s="84">
+      <c r="M43" s="83">
         <v>0</v>
       </c>
       <c r="N43" s="84">
@@ -3956,11 +4264,17 @@
       <c r="O43" s="84">
         <v>0</v>
       </c>
-      <c r="P43" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="P43" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="84">
+        <v>0</v>
+      </c>
+      <c r="R43" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="74"/>
       <c r="B44" s="75"/>
       <c r="C44" s="76"/>
@@ -3985,13 +4299,13 @@
       <c r="J44" s="82">
         <v>0</v>
       </c>
-      <c r="K44" s="83">
+      <c r="K44" s="82">
         <v>0</v>
       </c>
       <c r="L44" s="83">
         <v>0</v>
       </c>
-      <c r="M44" s="84">
+      <c r="M44" s="83">
         <v>0</v>
       </c>
       <c r="N44" s="84">
@@ -4000,11 +4314,17 @@
       <c r="O44" s="84">
         <v>0</v>
       </c>
-      <c r="P44" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="P44" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="84">
+        <v>0</v>
+      </c>
+      <c r="R44" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="74"/>
       <c r="B45" s="75"/>
       <c r="C45" s="76"/>
@@ -4029,13 +4349,13 @@
       <c r="J45" s="82">
         <v>0</v>
       </c>
-      <c r="K45" s="83">
+      <c r="K45" s="82">
         <v>0</v>
       </c>
       <c r="L45" s="83">
         <v>0</v>
       </c>
-      <c r="M45" s="84">
+      <c r="M45" s="83">
         <v>0</v>
       </c>
       <c r="N45" s="84">
@@ -4044,11 +4364,17 @@
       <c r="O45" s="84">
         <v>0</v>
       </c>
-      <c r="P45" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="P45" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="84">
+        <v>0</v>
+      </c>
+      <c r="R45" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="74"/>
       <c r="B46" s="75"/>
       <c r="C46" s="76"/>
@@ -4073,13 +4399,13 @@
       <c r="J46" s="82">
         <v>0</v>
       </c>
-      <c r="K46" s="83">
+      <c r="K46" s="82">
         <v>0</v>
       </c>
       <c r="L46" s="83">
         <v>0</v>
       </c>
-      <c r="M46" s="84">
+      <c r="M46" s="83">
         <v>0</v>
       </c>
       <c r="N46" s="84">
@@ -4088,11 +4414,17 @@
       <c r="O46" s="84">
         <v>0</v>
       </c>
-      <c r="P46" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="P46" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="84">
+        <v>0</v>
+      </c>
+      <c r="R46" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="74"/>
       <c r="B47" s="75"/>
       <c r="C47" s="76"/>
@@ -4117,13 +4449,13 @@
       <c r="J47" s="82">
         <v>0</v>
       </c>
-      <c r="K47" s="83">
+      <c r="K47" s="82">
         <v>0</v>
       </c>
       <c r="L47" s="83">
         <v>0</v>
       </c>
-      <c r="M47" s="84">
+      <c r="M47" s="83">
         <v>0</v>
       </c>
       <c r="N47" s="84">
@@ -4132,11 +4464,17 @@
       <c r="O47" s="84">
         <v>0</v>
       </c>
-      <c r="P47" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="P47" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="84">
+        <v>0</v>
+      </c>
+      <c r="R47" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" s="74"/>
       <c r="B48" s="75"/>
       <c r="C48" s="76"/>
@@ -4161,13 +4499,13 @@
       <c r="J48" s="82">
         <v>0</v>
       </c>
-      <c r="K48" s="83">
+      <c r="K48" s="82">
         <v>0</v>
       </c>
       <c r="L48" s="83">
         <v>0</v>
       </c>
-      <c r="M48" s="84">
+      <c r="M48" s="83">
         <v>0</v>
       </c>
       <c r="N48" s="84">
@@ -4176,11 +4514,17 @@
       <c r="O48" s="84">
         <v>0</v>
       </c>
-      <c r="P48" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="P48" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="84">
+        <v>0</v>
+      </c>
+      <c r="R48" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="74"/>
       <c r="B49" s="75"/>
       <c r="C49" s="76"/>
@@ -4205,13 +4549,13 @@
       <c r="J49" s="82">
         <v>0</v>
       </c>
-      <c r="K49" s="83">
+      <c r="K49" s="82">
         <v>0</v>
       </c>
       <c r="L49" s="83">
         <v>0</v>
       </c>
-      <c r="M49" s="84">
+      <c r="M49" s="83">
         <v>0</v>
       </c>
       <c r="N49" s="84">
@@ -4220,11 +4564,17 @@
       <c r="O49" s="84">
         <v>0</v>
       </c>
-      <c r="P49" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="P49" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="84">
+        <v>0</v>
+      </c>
+      <c r="R49" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="74"/>
       <c r="B50" s="75"/>
       <c r="C50" s="76"/>
@@ -4249,13 +4599,13 @@
       <c r="J50" s="82">
         <v>0</v>
       </c>
-      <c r="K50" s="83">
+      <c r="K50" s="82">
         <v>0</v>
       </c>
       <c r="L50" s="83">
         <v>0</v>
       </c>
-      <c r="M50" s="84">
+      <c r="M50" s="83">
         <v>0</v>
       </c>
       <c r="N50" s="84">
@@ -4264,11 +4614,17 @@
       <c r="O50" s="84">
         <v>0</v>
       </c>
-      <c r="P50" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="P50" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="84">
+        <v>0</v>
+      </c>
+      <c r="R50" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="74"/>
       <c r="B51" s="75"/>
       <c r="C51" s="76"/>
@@ -4293,13 +4649,13 @@
       <c r="J51" s="82">
         <v>0</v>
       </c>
-      <c r="K51" s="83">
+      <c r="K51" s="82">
         <v>0</v>
       </c>
       <c r="L51" s="83">
         <v>0</v>
       </c>
-      <c r="M51" s="84">
+      <c r="M51" s="83">
         <v>0</v>
       </c>
       <c r="N51" s="84">
@@ -4308,11 +4664,17 @@
       <c r="O51" s="84">
         <v>0</v>
       </c>
-      <c r="P51" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="P51" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="84">
+        <v>0</v>
+      </c>
+      <c r="R51" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="74"/>
       <c r="B52" s="75"/>
       <c r="C52" s="76"/>
@@ -4337,13 +4699,13 @@
       <c r="J52" s="82">
         <v>0</v>
       </c>
-      <c r="K52" s="83">
+      <c r="K52" s="82">
         <v>0</v>
       </c>
       <c r="L52" s="83">
         <v>0</v>
       </c>
-      <c r="M52" s="84">
+      <c r="M52" s="83">
         <v>0</v>
       </c>
       <c r="N52" s="84">
@@ -4352,11 +4714,17 @@
       <c r="O52" s="84">
         <v>0</v>
       </c>
-      <c r="P52" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="P52" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="84">
+        <v>0</v>
+      </c>
+      <c r="R52" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="74"/>
       <c r="B53" s="75"/>
       <c r="C53" s="76"/>
@@ -4381,13 +4749,13 @@
       <c r="J53" s="82">
         <v>0</v>
       </c>
-      <c r="K53" s="83">
+      <c r="K53" s="82">
         <v>0</v>
       </c>
       <c r="L53" s="83">
         <v>0</v>
       </c>
-      <c r="M53" s="84">
+      <c r="M53" s="83">
         <v>0</v>
       </c>
       <c r="N53" s="84">
@@ -4396,11 +4764,17 @@
       <c r="O53" s="84">
         <v>0</v>
       </c>
-      <c r="P53" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="P53" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="84">
+        <v>0</v>
+      </c>
+      <c r="R53" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="74"/>
       <c r="B54" s="75"/>
       <c r="C54" s="76"/>
@@ -4425,13 +4799,13 @@
       <c r="J54" s="82">
         <v>0</v>
       </c>
-      <c r="K54" s="83">
+      <c r="K54" s="82">
         <v>0</v>
       </c>
       <c r="L54" s="83">
         <v>0</v>
       </c>
-      <c r="M54" s="84">
+      <c r="M54" s="83">
         <v>0</v>
       </c>
       <c r="N54" s="84">
@@ -4440,11 +4814,17 @@
       <c r="O54" s="84">
         <v>0</v>
       </c>
-      <c r="P54" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="P54" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="84">
+        <v>0</v>
+      </c>
+      <c r="R54" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" s="74"/>
       <c r="B55" s="75"/>
       <c r="C55" s="76"/>
@@ -4469,13 +4849,13 @@
       <c r="J55" s="82">
         <v>0</v>
       </c>
-      <c r="K55" s="83">
+      <c r="K55" s="82">
         <v>0</v>
       </c>
       <c r="L55" s="83">
         <v>0</v>
       </c>
-      <c r="M55" s="84">
+      <c r="M55" s="83">
         <v>0</v>
       </c>
       <c r="N55" s="84">
@@ -4484,11 +4864,17 @@
       <c r="O55" s="84">
         <v>0</v>
       </c>
-      <c r="P55" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="P55" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="84">
+        <v>0</v>
+      </c>
+      <c r="R55" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="74"/>
       <c r="B56" s="75"/>
       <c r="C56" s="76"/>
@@ -4513,13 +4899,13 @@
       <c r="J56" s="82">
         <v>0</v>
       </c>
-      <c r="K56" s="83">
+      <c r="K56" s="82">
         <v>0</v>
       </c>
       <c r="L56" s="83">
         <v>0</v>
       </c>
-      <c r="M56" s="84">
+      <c r="M56" s="83">
         <v>0</v>
       </c>
       <c r="N56" s="84">
@@ -4528,11 +4914,17 @@
       <c r="O56" s="84">
         <v>0</v>
       </c>
-      <c r="P56" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="P56" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="84">
+        <v>0</v>
+      </c>
+      <c r="R56" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="74"/>
       <c r="B57" s="75"/>
       <c r="C57" s="76"/>
@@ -4557,13 +4949,13 @@
       <c r="J57" s="82">
         <v>0</v>
       </c>
-      <c r="K57" s="83">
+      <c r="K57" s="82">
         <v>0</v>
       </c>
       <c r="L57" s="83">
         <v>0</v>
       </c>
-      <c r="M57" s="84">
+      <c r="M57" s="83">
         <v>0</v>
       </c>
       <c r="N57" s="84">
@@ -4572,11 +4964,17 @@
       <c r="O57" s="84">
         <v>0</v>
       </c>
-      <c r="P57" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="P57" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="84">
+        <v>0</v>
+      </c>
+      <c r="R57" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="74"/>
       <c r="B58" s="75"/>
       <c r="C58" s="76"/>
@@ -4601,13 +4999,13 @@
       <c r="J58" s="82">
         <v>0</v>
       </c>
-      <c r="K58" s="83">
+      <c r="K58" s="82">
         <v>0</v>
       </c>
       <c r="L58" s="83">
         <v>0</v>
       </c>
-      <c r="M58" s="84">
+      <c r="M58" s="83">
         <v>0</v>
       </c>
       <c r="N58" s="84">
@@ -4616,11 +5014,17 @@
       <c r="O58" s="84">
         <v>0</v>
       </c>
-      <c r="P58" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="P58" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="84">
+        <v>0</v>
+      </c>
+      <c r="R58" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="74"/>
       <c r="B59" s="75"/>
       <c r="C59" s="76"/>
@@ -4645,13 +5049,13 @@
       <c r="J59" s="82">
         <v>0</v>
       </c>
-      <c r="K59" s="83">
+      <c r="K59" s="82">
         <v>0</v>
       </c>
       <c r="L59" s="83">
         <v>0</v>
       </c>
-      <c r="M59" s="84">
+      <c r="M59" s="83">
         <v>0</v>
       </c>
       <c r="N59" s="84">
@@ -4660,11 +5064,17 @@
       <c r="O59" s="84">
         <v>0</v>
       </c>
-      <c r="P59" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="P59" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="84">
+        <v>0</v>
+      </c>
+      <c r="R59" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="74"/>
       <c r="B60" s="75"/>
       <c r="C60" s="76"/>
@@ -4689,13 +5099,13 @@
       <c r="J60" s="82">
         <v>0</v>
       </c>
-      <c r="K60" s="83">
+      <c r="K60" s="82">
         <v>0</v>
       </c>
       <c r="L60" s="83">
         <v>0</v>
       </c>
-      <c r="M60" s="84">
+      <c r="M60" s="83">
         <v>0</v>
       </c>
       <c r="N60" s="84">
@@ -4704,11 +5114,17 @@
       <c r="O60" s="84">
         <v>0</v>
       </c>
-      <c r="P60" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="P60" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="84">
+        <v>0</v>
+      </c>
+      <c r="R60" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="74"/>
       <c r="B61" s="75"/>
       <c r="C61" s="76"/>
@@ -4733,13 +5149,13 @@
       <c r="J61" s="82">
         <v>0</v>
       </c>
-      <c r="K61" s="83">
+      <c r="K61" s="82">
         <v>0</v>
       </c>
       <c r="L61" s="83">
         <v>0</v>
       </c>
-      <c r="M61" s="84">
+      <c r="M61" s="83">
         <v>0</v>
       </c>
       <c r="N61" s="84">
@@ -4748,11 +5164,17 @@
       <c r="O61" s="84">
         <v>0</v>
       </c>
-      <c r="P61" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="P61" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="84">
+        <v>0</v>
+      </c>
+      <c r="R61" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="74"/>
       <c r="B62" s="75"/>
       <c r="C62" s="76"/>
@@ -4777,13 +5199,13 @@
       <c r="J62" s="82">
         <v>0</v>
       </c>
-      <c r="K62" s="83">
+      <c r="K62" s="82">
         <v>0</v>
       </c>
       <c r="L62" s="83">
         <v>0</v>
       </c>
-      <c r="M62" s="84">
+      <c r="M62" s="83">
         <v>0</v>
       </c>
       <c r="N62" s="84">
@@ -4792,11 +5214,17 @@
       <c r="O62" s="84">
         <v>0</v>
       </c>
-      <c r="P62" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="P62" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="84">
+        <v>0</v>
+      </c>
+      <c r="R62" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="74"/>
       <c r="B63" s="75"/>
       <c r="C63" s="76"/>
@@ -4821,13 +5249,13 @@
       <c r="J63" s="82">
         <v>0</v>
       </c>
-      <c r="K63" s="83">
+      <c r="K63" s="82">
         <v>0</v>
       </c>
       <c r="L63" s="83">
         <v>0</v>
       </c>
-      <c r="M63" s="84">
+      <c r="M63" s="83">
         <v>0</v>
       </c>
       <c r="N63" s="84">
@@ -4836,11 +5264,17 @@
       <c r="O63" s="84">
         <v>0</v>
       </c>
-      <c r="P63" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="P63" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="84">
+        <v>0</v>
+      </c>
+      <c r="R63" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="74"/>
       <c r="B64" s="75"/>
       <c r="C64" s="76"/>
@@ -4865,13 +5299,13 @@
       <c r="J64" s="82">
         <v>0</v>
       </c>
-      <c r="K64" s="83">
+      <c r="K64" s="82">
         <v>0</v>
       </c>
       <c r="L64" s="83">
         <v>0</v>
       </c>
-      <c r="M64" s="84">
+      <c r="M64" s="83">
         <v>0</v>
       </c>
       <c r="N64" s="84">
@@ -4880,11 +5314,17 @@
       <c r="O64" s="84">
         <v>0</v>
       </c>
-      <c r="P64" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="P64" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="84">
+        <v>0</v>
+      </c>
+      <c r="R64" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="74"/>
       <c r="B65" s="75"/>
       <c r="C65" s="76"/>
@@ -4909,13 +5349,13 @@
       <c r="J65" s="82">
         <v>0</v>
       </c>
-      <c r="K65" s="83">
+      <c r="K65" s="82">
         <v>0</v>
       </c>
       <c r="L65" s="83">
         <v>0</v>
       </c>
-      <c r="M65" s="84">
+      <c r="M65" s="83">
         <v>0</v>
       </c>
       <c r="N65" s="84">
@@ -4924,11 +5364,17 @@
       <c r="O65" s="84">
         <v>0</v>
       </c>
-      <c r="P65" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="P65" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="84">
+        <v>0</v>
+      </c>
+      <c r="R65" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="74"/>
       <c r="B66" s="75"/>
       <c r="C66" s="76"/>
@@ -4953,13 +5399,13 @@
       <c r="J66" s="82">
         <v>0</v>
       </c>
-      <c r="K66" s="83">
+      <c r="K66" s="82">
         <v>0</v>
       </c>
       <c r="L66" s="83">
         <v>0</v>
       </c>
-      <c r="M66" s="84">
+      <c r="M66" s="83">
         <v>0</v>
       </c>
       <c r="N66" s="84">
@@ -4968,11 +5414,17 @@
       <c r="O66" s="84">
         <v>0</v>
       </c>
-      <c r="P66" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="P66" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="84">
+        <v>0</v>
+      </c>
+      <c r="R66" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="74"/>
       <c r="B67" s="75"/>
       <c r="C67" s="76"/>
@@ -4997,13 +5449,13 @@
       <c r="J67" s="82">
         <v>0</v>
       </c>
-      <c r="K67" s="83">
+      <c r="K67" s="82">
         <v>0</v>
       </c>
       <c r="L67" s="83">
         <v>0</v>
       </c>
-      <c r="M67" s="84">
+      <c r="M67" s="83">
         <v>0</v>
       </c>
       <c r="N67" s="84">
@@ -5012,11 +5464,17 @@
       <c r="O67" s="84">
         <v>0</v>
       </c>
-      <c r="P67" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="P67" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="84">
+        <v>0</v>
+      </c>
+      <c r="R67" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="74"/>
       <c r="B68" s="75"/>
       <c r="C68" s="76"/>
@@ -5041,13 +5499,13 @@
       <c r="J68" s="82">
         <v>0</v>
       </c>
-      <c r="K68" s="83">
+      <c r="K68" s="82">
         <v>0</v>
       </c>
       <c r="L68" s="83">
         <v>0</v>
       </c>
-      <c r="M68" s="84">
+      <c r="M68" s="83">
         <v>0</v>
       </c>
       <c r="N68" s="84">
@@ -5056,11 +5514,17 @@
       <c r="O68" s="84">
         <v>0</v>
       </c>
-      <c r="P68" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="P68" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="84">
+        <v>0</v>
+      </c>
+      <c r="R68" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" s="74"/>
       <c r="B69" s="75"/>
       <c r="C69" s="76"/>
@@ -5085,13 +5549,13 @@
       <c r="J69" s="82">
         <v>0</v>
       </c>
-      <c r="K69" s="83">
+      <c r="K69" s="82">
         <v>0</v>
       </c>
       <c r="L69" s="83">
         <v>0</v>
       </c>
-      <c r="M69" s="84">
+      <c r="M69" s="83">
         <v>0</v>
       </c>
       <c r="N69" s="84">
@@ -5100,11 +5564,17 @@
       <c r="O69" s="84">
         <v>0</v>
       </c>
-      <c r="P69" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="P69" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="84">
+        <v>0</v>
+      </c>
+      <c r="R69" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" s="74"/>
       <c r="B70" s="75"/>
       <c r="C70" s="76"/>
@@ -5129,13 +5599,13 @@
       <c r="J70" s="82">
         <v>0</v>
       </c>
-      <c r="K70" s="83">
+      <c r="K70" s="82">
         <v>0</v>
       </c>
       <c r="L70" s="83">
         <v>0</v>
       </c>
-      <c r="M70" s="84">
+      <c r="M70" s="83">
         <v>0</v>
       </c>
       <c r="N70" s="84">
@@ -5144,11 +5614,17 @@
       <c r="O70" s="84">
         <v>0</v>
       </c>
-      <c r="P70" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="P70" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="84">
+        <v>0</v>
+      </c>
+      <c r="R70" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" s="74"/>
       <c r="B71" s="75"/>
       <c r="C71" s="76"/>
@@ -5173,13 +5649,13 @@
       <c r="J71" s="82">
         <v>0</v>
       </c>
-      <c r="K71" s="83">
+      <c r="K71" s="82">
         <v>0</v>
       </c>
       <c r="L71" s="83">
         <v>0</v>
       </c>
-      <c r="M71" s="84">
+      <c r="M71" s="83">
         <v>0</v>
       </c>
       <c r="N71" s="84">
@@ -5188,11 +5664,17 @@
       <c r="O71" s="84">
         <v>0</v>
       </c>
-      <c r="P71" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="P71" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="84">
+        <v>0</v>
+      </c>
+      <c r="R71" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" s="74"/>
       <c r="B72" s="75"/>
       <c r="C72" s="76"/>
@@ -5217,13 +5699,13 @@
       <c r="J72" s="82">
         <v>0</v>
       </c>
-      <c r="K72" s="83">
+      <c r="K72" s="82">
         <v>0</v>
       </c>
       <c r="L72" s="83">
         <v>0</v>
       </c>
-      <c r="M72" s="84">
+      <c r="M72" s="83">
         <v>0</v>
       </c>
       <c r="N72" s="84">
@@ -5232,11 +5714,17 @@
       <c r="O72" s="84">
         <v>0</v>
       </c>
-      <c r="P72" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="P72" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="84">
+        <v>0</v>
+      </c>
+      <c r="R72" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="74"/>
       <c r="B73" s="75"/>
       <c r="C73" s="76"/>
@@ -5261,13 +5749,13 @@
       <c r="J73" s="82">
         <v>0</v>
       </c>
-      <c r="K73" s="83">
+      <c r="K73" s="82">
         <v>0</v>
       </c>
       <c r="L73" s="83">
         <v>0</v>
       </c>
-      <c r="M73" s="84">
+      <c r="M73" s="83">
         <v>0</v>
       </c>
       <c r="N73" s="84">
@@ -5276,11 +5764,17 @@
       <c r="O73" s="84">
         <v>0</v>
       </c>
-      <c r="P73" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="P73" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="84">
+        <v>0</v>
+      </c>
+      <c r="R73" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" s="74"/>
       <c r="B74" s="75"/>
       <c r="C74" s="76"/>
@@ -5305,13 +5799,13 @@
       <c r="J74" s="82">
         <v>0</v>
       </c>
-      <c r="K74" s="83">
+      <c r="K74" s="82">
         <v>0</v>
       </c>
       <c r="L74" s="83">
         <v>0</v>
       </c>
-      <c r="M74" s="84">
+      <c r="M74" s="83">
         <v>0</v>
       </c>
       <c r="N74" s="84">
@@ -5320,11 +5814,17 @@
       <c r="O74" s="84">
         <v>0</v>
       </c>
-      <c r="P74" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
+      <c r="P74" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="84">
+        <v>0</v>
+      </c>
+      <c r="R74" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" s="74"/>
       <c r="B75" s="75"/>
       <c r="C75" s="76"/>
@@ -5349,13 +5849,13 @@
       <c r="J75" s="82">
         <v>0</v>
       </c>
-      <c r="K75" s="83">
+      <c r="K75" s="82">
         <v>0</v>
       </c>
       <c r="L75" s="83">
         <v>0</v>
       </c>
-      <c r="M75" s="84">
+      <c r="M75" s="83">
         <v>0</v>
       </c>
       <c r="N75" s="84">
@@ -5364,11 +5864,17 @@
       <c r="O75" s="84">
         <v>0</v>
       </c>
-      <c r="P75" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="P75" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="84">
+        <v>0</v>
+      </c>
+      <c r="R75" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" s="74"/>
       <c r="B76" s="75"/>
       <c r="C76" s="76"/>
@@ -5393,13 +5899,13 @@
       <c r="J76" s="82">
         <v>0</v>
       </c>
-      <c r="K76" s="83">
+      <c r="K76" s="82">
         <v>0</v>
       </c>
       <c r="L76" s="83">
         <v>0</v>
       </c>
-      <c r="M76" s="84">
+      <c r="M76" s="83">
         <v>0</v>
       </c>
       <c r="N76" s="84">
@@ -5408,11 +5914,17 @@
       <c r="O76" s="84">
         <v>0</v>
       </c>
-      <c r="P76" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16">
+      <c r="P76" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="84">
+        <v>0</v>
+      </c>
+      <c r="R76" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" s="74"/>
       <c r="B77" s="75"/>
       <c r="C77" s="76"/>
@@ -5437,13 +5949,13 @@
       <c r="J77" s="82">
         <v>0</v>
       </c>
-      <c r="K77" s="83">
+      <c r="K77" s="82">
         <v>0</v>
       </c>
       <c r="L77" s="83">
         <v>0</v>
       </c>
-      <c r="M77" s="84">
+      <c r="M77" s="83">
         <v>0</v>
       </c>
       <c r="N77" s="84">
@@ -5452,11 +5964,17 @@
       <c r="O77" s="84">
         <v>0</v>
       </c>
-      <c r="P77" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="P77" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="84">
+        <v>0</v>
+      </c>
+      <c r="R77" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" s="74"/>
       <c r="B78" s="75"/>
       <c r="C78" s="76"/>
@@ -5481,13 +5999,13 @@
       <c r="J78" s="82">
         <v>0</v>
       </c>
-      <c r="K78" s="83">
+      <c r="K78" s="82">
         <v>0</v>
       </c>
       <c r="L78" s="83">
         <v>0</v>
       </c>
-      <c r="M78" s="84">
+      <c r="M78" s="83">
         <v>0</v>
       </c>
       <c r="N78" s="84">
@@ -5496,11 +6014,17 @@
       <c r="O78" s="84">
         <v>0</v>
       </c>
-      <c r="P78" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="P78" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="84">
+        <v>0</v>
+      </c>
+      <c r="R78" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" s="74"/>
       <c r="B79" s="75"/>
       <c r="C79" s="76"/>
@@ -5525,13 +6049,13 @@
       <c r="J79" s="82">
         <v>0</v>
       </c>
-      <c r="K79" s="83">
+      <c r="K79" s="82">
         <v>0</v>
       </c>
       <c r="L79" s="83">
         <v>0</v>
       </c>
-      <c r="M79" s="84">
+      <c r="M79" s="83">
         <v>0</v>
       </c>
       <c r="N79" s="84">
@@ -5540,11 +6064,17 @@
       <c r="O79" s="84">
         <v>0</v>
       </c>
-      <c r="P79" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
+      <c r="P79" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="84">
+        <v>0</v>
+      </c>
+      <c r="R79" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" s="74"/>
       <c r="B80" s="75"/>
       <c r="C80" s="76"/>
@@ -5569,13 +6099,13 @@
       <c r="J80" s="82">
         <v>0</v>
       </c>
-      <c r="K80" s="83">
+      <c r="K80" s="82">
         <v>0</v>
       </c>
       <c r="L80" s="83">
         <v>0</v>
       </c>
-      <c r="M80" s="84">
+      <c r="M80" s="83">
         <v>0</v>
       </c>
       <c r="N80" s="84">
@@ -5584,11 +6114,17 @@
       <c r="O80" s="84">
         <v>0</v>
       </c>
-      <c r="P80" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="P80" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="84">
+        <v>0</v>
+      </c>
+      <c r="R80" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" s="74"/>
       <c r="B81" s="75"/>
       <c r="C81" s="76"/>
@@ -5613,13 +6149,13 @@
       <c r="J81" s="82">
         <v>0</v>
       </c>
-      <c r="K81" s="83">
+      <c r="K81" s="82">
         <v>0</v>
       </c>
       <c r="L81" s="83">
         <v>0</v>
       </c>
-      <c r="M81" s="84">
+      <c r="M81" s="83">
         <v>0</v>
       </c>
       <c r="N81" s="84">
@@ -5628,11 +6164,17 @@
       <c r="O81" s="84">
         <v>0</v>
       </c>
-      <c r="P81" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="P81" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="84">
+        <v>0</v>
+      </c>
+      <c r="R81" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" s="74"/>
       <c r="B82" s="75"/>
       <c r="C82" s="76"/>
@@ -5657,13 +6199,13 @@
       <c r="J82" s="82">
         <v>0</v>
       </c>
-      <c r="K82" s="83">
+      <c r="K82" s="82">
         <v>0</v>
       </c>
       <c r="L82" s="83">
         <v>0</v>
       </c>
-      <c r="M82" s="84">
+      <c r="M82" s="83">
         <v>0</v>
       </c>
       <c r="N82" s="84">
@@ -5672,11 +6214,17 @@
       <c r="O82" s="84">
         <v>0</v>
       </c>
-      <c r="P82" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="P82" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="84">
+        <v>0</v>
+      </c>
+      <c r="R82" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" s="74"/>
       <c r="B83" s="75"/>
       <c r="C83" s="76"/>
@@ -5701,13 +6249,13 @@
       <c r="J83" s="82">
         <v>0</v>
       </c>
-      <c r="K83" s="83">
+      <c r="K83" s="82">
         <v>0</v>
       </c>
       <c r="L83" s="83">
         <v>0</v>
       </c>
-      <c r="M83" s="84">
+      <c r="M83" s="83">
         <v>0</v>
       </c>
       <c r="N83" s="84">
@@ -5716,11 +6264,17 @@
       <c r="O83" s="84">
         <v>0</v>
       </c>
-      <c r="P83" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="P83" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="84">
+        <v>0</v>
+      </c>
+      <c r="R83" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" s="74"/>
       <c r="B84" s="75"/>
       <c r="C84" s="76"/>
@@ -5745,13 +6299,13 @@
       <c r="J84" s="82">
         <v>0</v>
       </c>
-      <c r="K84" s="83">
+      <c r="K84" s="82">
         <v>0</v>
       </c>
       <c r="L84" s="83">
         <v>0</v>
       </c>
-      <c r="M84" s="84">
+      <c r="M84" s="83">
         <v>0</v>
       </c>
       <c r="N84" s="84">
@@ -5760,11 +6314,17 @@
       <c r="O84" s="84">
         <v>0</v>
       </c>
-      <c r="P84" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="P84" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="84">
+        <v>0</v>
+      </c>
+      <c r="R84" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" s="74"/>
       <c r="B85" s="75"/>
       <c r="C85" s="76"/>
@@ -5789,13 +6349,13 @@
       <c r="J85" s="82">
         <v>0</v>
       </c>
-      <c r="K85" s="83">
+      <c r="K85" s="82">
         <v>0</v>
       </c>
       <c r="L85" s="83">
         <v>0</v>
       </c>
-      <c r="M85" s="84">
+      <c r="M85" s="83">
         <v>0</v>
       </c>
       <c r="N85" s="84">
@@ -5804,11 +6364,17 @@
       <c r="O85" s="84">
         <v>0</v>
       </c>
-      <c r="P85" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="P85" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="84">
+        <v>0</v>
+      </c>
+      <c r="R85" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" s="74"/>
       <c r="B86" s="75"/>
       <c r="C86" s="76"/>
@@ -5833,13 +6399,13 @@
       <c r="J86" s="82">
         <v>0</v>
       </c>
-      <c r="K86" s="83">
+      <c r="K86" s="82">
         <v>0</v>
       </c>
       <c r="L86" s="83">
         <v>0</v>
       </c>
-      <c r="M86" s="84">
+      <c r="M86" s="83">
         <v>0</v>
       </c>
       <c r="N86" s="84">
@@ -5848,11 +6414,17 @@
       <c r="O86" s="84">
         <v>0</v>
       </c>
-      <c r="P86" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="P86" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="84">
+        <v>0</v>
+      </c>
+      <c r="R86" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" s="74"/>
       <c r="B87" s="75"/>
       <c r="C87" s="76"/>
@@ -5877,13 +6449,13 @@
       <c r="J87" s="82">
         <v>0</v>
       </c>
-      <c r="K87" s="83">
+      <c r="K87" s="82">
         <v>0</v>
       </c>
       <c r="L87" s="83">
         <v>0</v>
       </c>
-      <c r="M87" s="84">
+      <c r="M87" s="83">
         <v>0</v>
       </c>
       <c r="N87" s="84">
@@ -5892,11 +6464,17 @@
       <c r="O87" s="84">
         <v>0</v>
       </c>
-      <c r="P87" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="P87" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="84">
+        <v>0</v>
+      </c>
+      <c r="R87" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" s="74"/>
       <c r="B88" s="75"/>
       <c r="C88" s="76"/>
@@ -5921,13 +6499,13 @@
       <c r="J88" s="82">
         <v>0</v>
       </c>
-      <c r="K88" s="83">
+      <c r="K88" s="82">
         <v>0</v>
       </c>
       <c r="L88" s="83">
         <v>0</v>
       </c>
-      <c r="M88" s="84">
+      <c r="M88" s="83">
         <v>0</v>
       </c>
       <c r="N88" s="84">
@@ -5936,11 +6514,17 @@
       <c r="O88" s="84">
         <v>0</v>
       </c>
-      <c r="P88" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="P88" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="84">
+        <v>0</v>
+      </c>
+      <c r="R88" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" s="74"/>
       <c r="B89" s="75"/>
       <c r="C89" s="76"/>
@@ -5965,13 +6549,13 @@
       <c r="J89" s="82">
         <v>0</v>
       </c>
-      <c r="K89" s="83">
+      <c r="K89" s="82">
         <v>0</v>
       </c>
       <c r="L89" s="83">
         <v>0</v>
       </c>
-      <c r="M89" s="84">
+      <c r="M89" s="83">
         <v>0</v>
       </c>
       <c r="N89" s="84">
@@ -5980,11 +6564,17 @@
       <c r="O89" s="84">
         <v>0</v>
       </c>
-      <c r="P89" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16">
+      <c r="P89" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="84">
+        <v>0</v>
+      </c>
+      <c r="R89" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90" s="74"/>
       <c r="B90" s="75"/>
       <c r="C90" s="76"/>
@@ -6009,13 +6599,13 @@
       <c r="J90" s="82">
         <v>0</v>
       </c>
-      <c r="K90" s="83">
+      <c r="K90" s="82">
         <v>0</v>
       </c>
       <c r="L90" s="83">
         <v>0</v>
       </c>
-      <c r="M90" s="84">
+      <c r="M90" s="83">
         <v>0</v>
       </c>
       <c r="N90" s="84">
@@ -6024,11 +6614,17 @@
       <c r="O90" s="84">
         <v>0</v>
       </c>
-      <c r="P90" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16">
+      <c r="P90" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="84">
+        <v>0</v>
+      </c>
+      <c r="R90" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91" s="74"/>
       <c r="B91" s="75"/>
       <c r="C91" s="76"/>
@@ -6053,13 +6649,13 @@
       <c r="J91" s="82">
         <v>0</v>
       </c>
-      <c r="K91" s="83">
+      <c r="K91" s="82">
         <v>0</v>
       </c>
       <c r="L91" s="83">
         <v>0</v>
       </c>
-      <c r="M91" s="84">
+      <c r="M91" s="83">
         <v>0</v>
       </c>
       <c r="N91" s="84">
@@ -6068,11 +6664,17 @@
       <c r="O91" s="84">
         <v>0</v>
       </c>
-      <c r="P91" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16">
+      <c r="P91" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="84">
+        <v>0</v>
+      </c>
+      <c r="R91" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92" s="74"/>
       <c r="B92" s="75"/>
       <c r="C92" s="76"/>
@@ -6097,13 +6699,13 @@
       <c r="J92" s="82">
         <v>0</v>
       </c>
-      <c r="K92" s="83">
+      <c r="K92" s="82">
         <v>0</v>
       </c>
       <c r="L92" s="83">
         <v>0</v>
       </c>
-      <c r="M92" s="84">
+      <c r="M92" s="83">
         <v>0</v>
       </c>
       <c r="N92" s="84">
@@ -6112,11 +6714,17 @@
       <c r="O92" s="84">
         <v>0</v>
       </c>
-      <c r="P92" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16">
+      <c r="P92" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="84">
+        <v>0</v>
+      </c>
+      <c r="R92" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93" s="74"/>
       <c r="B93" s="75"/>
       <c r="C93" s="76"/>
@@ -6141,13 +6749,13 @@
       <c r="J93" s="82">
         <v>0</v>
       </c>
-      <c r="K93" s="83">
+      <c r="K93" s="82">
         <v>0</v>
       </c>
       <c r="L93" s="83">
         <v>0</v>
       </c>
-      <c r="M93" s="84">
+      <c r="M93" s="83">
         <v>0</v>
       </c>
       <c r="N93" s="84">
@@ -6156,11 +6764,17 @@
       <c r="O93" s="84">
         <v>0</v>
       </c>
-      <c r="P93" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16">
+      <c r="P93" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="84">
+        <v>0</v>
+      </c>
+      <c r="R93" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94" s="74"/>
       <c r="B94" s="75"/>
       <c r="C94" s="76"/>
@@ -6185,13 +6799,13 @@
       <c r="J94" s="82">
         <v>0</v>
       </c>
-      <c r="K94" s="83">
+      <c r="K94" s="82">
         <v>0</v>
       </c>
       <c r="L94" s="83">
         <v>0</v>
       </c>
-      <c r="M94" s="84">
+      <c r="M94" s="83">
         <v>0</v>
       </c>
       <c r="N94" s="84">
@@ -6200,11 +6814,17 @@
       <c r="O94" s="84">
         <v>0</v>
       </c>
-      <c r="P94" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16">
+      <c r="P94" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="84">
+        <v>0</v>
+      </c>
+      <c r="R94" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95" s="74"/>
       <c r="B95" s="75"/>
       <c r="C95" s="76"/>
@@ -6229,13 +6849,13 @@
       <c r="J95" s="82">
         <v>0</v>
       </c>
-      <c r="K95" s="83">
+      <c r="K95" s="82">
         <v>0</v>
       </c>
       <c r="L95" s="83">
         <v>0</v>
       </c>
-      <c r="M95" s="84">
+      <c r="M95" s="83">
         <v>0</v>
       </c>
       <c r="N95" s="84">
@@ -6244,11 +6864,17 @@
       <c r="O95" s="84">
         <v>0</v>
       </c>
-      <c r="P95" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16">
+      <c r="P95" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="84">
+        <v>0</v>
+      </c>
+      <c r="R95" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96" s="74"/>
       <c r="B96" s="75"/>
       <c r="C96" s="76"/>
@@ -6273,13 +6899,13 @@
       <c r="J96" s="82">
         <v>0</v>
       </c>
-      <c r="K96" s="83">
+      <c r="K96" s="82">
         <v>0</v>
       </c>
       <c r="L96" s="83">
         <v>0</v>
       </c>
-      <c r="M96" s="84">
+      <c r="M96" s="83">
         <v>0</v>
       </c>
       <c r="N96" s="84">
@@ -6288,11 +6914,17 @@
       <c r="O96" s="84">
         <v>0</v>
       </c>
-      <c r="P96" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16">
+      <c r="P96" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="84">
+        <v>0</v>
+      </c>
+      <c r="R96" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97" s="74"/>
       <c r="B97" s="75"/>
       <c r="C97" s="76"/>
@@ -6317,13 +6949,13 @@
       <c r="J97" s="82">
         <v>0</v>
       </c>
-      <c r="K97" s="83">
+      <c r="K97" s="82">
         <v>0</v>
       </c>
       <c r="L97" s="83">
         <v>0</v>
       </c>
-      <c r="M97" s="84">
+      <c r="M97" s="83">
         <v>0</v>
       </c>
       <c r="N97" s="84">
@@ -6332,11 +6964,17 @@
       <c r="O97" s="84">
         <v>0</v>
       </c>
-      <c r="P97" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16">
+      <c r="P97" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="84">
+        <v>0</v>
+      </c>
+      <c r="R97" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98" s="74"/>
       <c r="B98" s="75"/>
       <c r="C98" s="76"/>
@@ -6361,13 +6999,13 @@
       <c r="J98" s="82">
         <v>0</v>
       </c>
-      <c r="K98" s="83">
+      <c r="K98" s="82">
         <v>0</v>
       </c>
       <c r="L98" s="83">
         <v>0</v>
       </c>
-      <c r="M98" s="84">
+      <c r="M98" s="83">
         <v>0</v>
       </c>
       <c r="N98" s="84">
@@ -6376,11 +7014,17 @@
       <c r="O98" s="84">
         <v>0</v>
       </c>
-      <c r="P98" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16">
+      <c r="P98" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="84">
+        <v>0</v>
+      </c>
+      <c r="R98" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99" s="74"/>
       <c r="B99" s="75"/>
       <c r="C99" s="76"/>
@@ -6405,13 +7049,13 @@
       <c r="J99" s="82">
         <v>0</v>
       </c>
-      <c r="K99" s="83">
+      <c r="K99" s="82">
         <v>0</v>
       </c>
       <c r="L99" s="83">
         <v>0</v>
       </c>
-      <c r="M99" s="84">
+      <c r="M99" s="83">
         <v>0</v>
       </c>
       <c r="N99" s="84">
@@ -6420,11 +7064,17 @@
       <c r="O99" s="84">
         <v>0</v>
       </c>
-      <c r="P99" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16">
+      <c r="P99" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="84">
+        <v>0</v>
+      </c>
+      <c r="R99" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100" s="74"/>
       <c r="B100" s="75"/>
       <c r="C100" s="76"/>
@@ -6449,13 +7099,13 @@
       <c r="J100" s="82">
         <v>0</v>
       </c>
-      <c r="K100" s="83">
+      <c r="K100" s="82">
         <v>0</v>
       </c>
       <c r="L100" s="83">
         <v>0</v>
       </c>
-      <c r="M100" s="84">
+      <c r="M100" s="83">
         <v>0</v>
       </c>
       <c r="N100" s="84">
@@ -6464,11 +7114,17 @@
       <c r="O100" s="84">
         <v>0</v>
       </c>
-      <c r="P100" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16">
+      <c r="P100" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="84">
+        <v>0</v>
+      </c>
+      <c r="R100" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101" s="74"/>
       <c r="B101" s="75"/>
       <c r="C101" s="76"/>
@@ -6493,13 +7149,13 @@
       <c r="J101" s="82">
         <v>0</v>
       </c>
-      <c r="K101" s="83">
+      <c r="K101" s="82">
         <v>0</v>
       </c>
       <c r="L101" s="83">
         <v>0</v>
       </c>
-      <c r="M101" s="84">
+      <c r="M101" s="83">
         <v>0</v>
       </c>
       <c r="N101" s="84">
@@ -6508,11 +7164,17 @@
       <c r="O101" s="84">
         <v>0</v>
       </c>
-      <c r="P101" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16">
+      <c r="P101" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="84">
+        <v>0</v>
+      </c>
+      <c r="R101" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
       <c r="A102" s="74"/>
       <c r="B102" s="75"/>
       <c r="C102" s="76"/>
@@ -6537,13 +7199,13 @@
       <c r="J102" s="82">
         <v>0</v>
       </c>
-      <c r="K102" s="83">
+      <c r="K102" s="82">
         <v>0</v>
       </c>
       <c r="L102" s="83">
         <v>0</v>
       </c>
-      <c r="M102" s="84">
+      <c r="M102" s="83">
         <v>0</v>
       </c>
       <c r="N102" s="84">
@@ -6552,11 +7214,17 @@
       <c r="O102" s="84">
         <v>0</v>
       </c>
-      <c r="P102" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16">
+      <c r="P102" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="84">
+        <v>0</v>
+      </c>
+      <c r="R102" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
       <c r="A103" s="74"/>
       <c r="B103" s="75"/>
       <c r="C103" s="76"/>
@@ -6581,13 +7249,13 @@
       <c r="J103" s="82">
         <v>0</v>
       </c>
-      <c r="K103" s="83">
+      <c r="K103" s="82">
         <v>0</v>
       </c>
       <c r="L103" s="83">
         <v>0</v>
       </c>
-      <c r="M103" s="84">
+      <c r="M103" s="83">
         <v>0</v>
       </c>
       <c r="N103" s="84">
@@ -6596,11 +7264,17 @@
       <c r="O103" s="84">
         <v>0</v>
       </c>
-      <c r="P103" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16">
+      <c r="P103" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="84">
+        <v>0</v>
+      </c>
+      <c r="R103" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
       <c r="A104" s="74"/>
       <c r="B104" s="75"/>
       <c r="C104" s="76"/>
@@ -6625,13 +7299,13 @@
       <c r="J104" s="82">
         <v>0</v>
       </c>
-      <c r="K104" s="83">
+      <c r="K104" s="82">
         <v>0</v>
       </c>
       <c r="L104" s="83">
         <v>0</v>
       </c>
-      <c r="M104" s="84">
+      <c r="M104" s="83">
         <v>0</v>
       </c>
       <c r="N104" s="84">
@@ -6640,7 +7314,13 @@
       <c r="O104" s="84">
         <v>0</v>
       </c>
-      <c r="P104" s="85">
+      <c r="P104" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="84">
+        <v>0</v>
+      </c>
+      <c r="R104" s="85">
         <v>0</v>
       </c>
     </row>
@@ -6649,13 +7329,13 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="D4:O104">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D4:Q104">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H104">
-    <cfRule type="cellIs" dxfId="39" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6775,7 +7455,7 @@
     </row>
     <row r="5" spans="1:19" ht="14" customHeight="1" outlineLevel="1">
       <c r="C5" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="16"/>
@@ -6861,52 +7541,52 @@
         <v>19</v>
       </c>
       <c r="C9" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="E9" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="F9" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="G9" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="H9" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="I9" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="J9" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="K9" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="L9" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="M9" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="N9" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="36" t="s">
+      <c r="O9" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="O9" s="36" t="s">
+      <c r="P9" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="P9" s="36" t="s">
+      <c r="Q9" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" s="36" t="s">
+      <c r="R9" s="36" t="s">
         <v>49</v>
-      </c>
-      <c r="R9" s="36" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -29915,70 +30595,70 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="notContainsBlanks" dxfId="38" priority="28">
+    <cfRule type="notContainsBlanks" dxfId="39" priority="28">
       <formula>LEN(TRIM(E1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="37" priority="14" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="38" priority="14" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="15" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="37" priority="15" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G1009">
+    <cfRule type="containsText" dxfId="36" priority="11" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",G13)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="35" priority="12" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",G13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",G13)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H6">
-    <cfRule type="cellIs" dxfId="33" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="32" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
       <formula>"手動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I1009">
-    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="13" operator="equal">
       <formula>"手動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J1009">
-    <cfRule type="containsText" dxfId="30" priority="9" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",J10)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="8" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",J10)))</formula>
+    <cfRule type="cellIs" dxfId="30" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"削除予定"</formula>
+    <cfRule type="cellIs" dxfId="29" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"MANUAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"保留"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="26" priority="6" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"保留"</formula>
+    <cfRule type="cellIs" dxfId="25" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"削除予定"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"MANUAL"</formula>
+    <cfRule type="containsText" dxfId="24" priority="8" stopIfTrue="1" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",J10)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
+    <cfRule type="containsText" dxfId="23" priority="9" stopIfTrue="1" operator="containsText" text="SKIP">
+      <formula>NOT(ISERROR(SEARCH("SKIP",J10)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="10" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="22" priority="10" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",J10)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29998,7 +30678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641B8779-49CC-7C41-8244-DBC27C6FCB57}">
   <dimension ref="A1:S1009"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="4" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
@@ -30106,7 +30786,7 @@
     </row>
     <row r="5" spans="1:19" ht="14" customHeight="1" outlineLevel="1">
       <c r="C5" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="16"/>
@@ -30192,52 +30872,52 @@
         <v>19</v>
       </c>
       <c r="C9" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="E9" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="F9" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="G9" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="H9" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="I9" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="J9" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="K9" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="L9" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="M9" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="N9" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="36" t="s">
+      <c r="O9" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="O9" s="36" t="s">
+      <c r="P9" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="P9" s="36" t="s">
+      <c r="Q9" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" s="36" t="s">
+      <c r="R9" s="36" t="s">
         <v>49</v>
-      </c>
-      <c r="R9" s="36" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -53246,58 +53926,63 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="notContainsBlanks" dxfId="20" priority="28">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="29">
       <formula>LEN(TRIM(E1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G1009">
-    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",G11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",G11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H6">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I1009">
-    <cfRule type="cellIs" dxfId="16" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
       <formula>"手動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J1009">
-    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"未実施"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="6" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
+    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="10" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="9" priority="11" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="8" priority="12" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="7" priority="13" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",J10)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"未実施"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"実施対象外"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J1009">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"COND_AUTO"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -53314,31 +53999,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC8D3DF-4B4C-6241-B3EE-09F2029151AE}">
-  <dimension ref="A2:B22"/>
+  <dimension ref="A2:B23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="68.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="115.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20">
       <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="89" t="s">
         <v>52</v>
-      </c>
-      <c r="B3" s="89" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20">
@@ -53346,7 +54031,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20">
@@ -53354,31 +54039,31 @@
         <v>1</v>
       </c>
       <c r="B5" s="89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20">
       <c r="A6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="89" t="s">
         <v>56</v>
-      </c>
-      <c r="B6" s="89" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20">
       <c r="A7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="89" t="s">
         <v>58</v>
-      </c>
-      <c r="B7" s="89" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20">
       <c r="A8" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="91" t="s">
         <v>60</v>
-      </c>
-      <c r="B8" s="91" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20">
@@ -53386,66 +54071,74 @@
         <v>3</v>
       </c>
       <c r="B9" s="92" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="20">
+      <c r="A10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="92" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="20">
+      <c r="A11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="92" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20">
-      <c r="A10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="92" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20">
-      <c r="A11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="92" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20">
       <c r="A12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="92" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="20">
+      <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B13" s="93" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="8" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="94" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="8" t="s">
-        <v>67</v>
+      <c r="A21" s="94" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A3:A12">
+  <conditionalFormatting sqref="A3:A13">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>

--- a/src/main/resources/ja/TestSpec.xlsx
+++ b/src/main/resources/ja/TestSpec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/ja/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BEE5AC-1C14-034F-80C4-B1AFEF912183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E29A159-6004-4942-9E4F-1045DC9CE008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21160" activeTab="1" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -2196,10 +2196,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92274D22-EDA0-BF40-BFA2-FCB7B06DA8AB}">
-  <dimension ref="A1:R104"/>
+  <dimension ref="A1:R150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="15"/>
@@ -7324,17 +7324,2317 @@
         <v>0</v>
       </c>
     </row>
+    <row r="105" spans="1:18">
+      <c r="A105" s="74"/>
+      <c r="B105" s="75"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="77">
+        <v>0</v>
+      </c>
+      <c r="E105" s="78">
+        <v>0</v>
+      </c>
+      <c r="F105" s="79">
+        <v>0</v>
+      </c>
+      <c r="G105" s="97">
+        <v>0</v>
+      </c>
+      <c r="H105" s="80">
+        <v>0</v>
+      </c>
+      <c r="I105" s="81">
+        <v>0</v>
+      </c>
+      <c r="J105" s="82">
+        <v>0</v>
+      </c>
+      <c r="K105" s="82">
+        <v>0</v>
+      </c>
+      <c r="L105" s="83">
+        <v>0</v>
+      </c>
+      <c r="M105" s="83">
+        <v>0</v>
+      </c>
+      <c r="N105" s="84">
+        <v>0</v>
+      </c>
+      <c r="O105" s="84">
+        <v>0</v>
+      </c>
+      <c r="P105" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="84">
+        <v>0</v>
+      </c>
+      <c r="R105" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106" s="74"/>
+      <c r="B106" s="75"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="77">
+        <v>0</v>
+      </c>
+      <c r="E106" s="78">
+        <v>0</v>
+      </c>
+      <c r="F106" s="79">
+        <v>0</v>
+      </c>
+      <c r="G106" s="97">
+        <v>0</v>
+      </c>
+      <c r="H106" s="80">
+        <v>0</v>
+      </c>
+      <c r="I106" s="81">
+        <v>0</v>
+      </c>
+      <c r="J106" s="82">
+        <v>0</v>
+      </c>
+      <c r="K106" s="82">
+        <v>0</v>
+      </c>
+      <c r="L106" s="83">
+        <v>0</v>
+      </c>
+      <c r="M106" s="83">
+        <v>0</v>
+      </c>
+      <c r="N106" s="84">
+        <v>0</v>
+      </c>
+      <c r="O106" s="84">
+        <v>0</v>
+      </c>
+      <c r="P106" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="84">
+        <v>0</v>
+      </c>
+      <c r="R106" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107" s="74"/>
+      <c r="B107" s="75"/>
+      <c r="C107" s="76"/>
+      <c r="D107" s="77">
+        <v>0</v>
+      </c>
+      <c r="E107" s="78">
+        <v>0</v>
+      </c>
+      <c r="F107" s="79">
+        <v>0</v>
+      </c>
+      <c r="G107" s="97">
+        <v>0</v>
+      </c>
+      <c r="H107" s="80">
+        <v>0</v>
+      </c>
+      <c r="I107" s="81">
+        <v>0</v>
+      </c>
+      <c r="J107" s="82">
+        <v>0</v>
+      </c>
+      <c r="K107" s="82">
+        <v>0</v>
+      </c>
+      <c r="L107" s="83">
+        <v>0</v>
+      </c>
+      <c r="M107" s="83">
+        <v>0</v>
+      </c>
+      <c r="N107" s="84">
+        <v>0</v>
+      </c>
+      <c r="O107" s="84">
+        <v>0</v>
+      </c>
+      <c r="P107" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="84">
+        <v>0</v>
+      </c>
+      <c r="R107" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108" s="74"/>
+      <c r="B108" s="75"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="77">
+        <v>0</v>
+      </c>
+      <c r="E108" s="78">
+        <v>0</v>
+      </c>
+      <c r="F108" s="79">
+        <v>0</v>
+      </c>
+      <c r="G108" s="97">
+        <v>0</v>
+      </c>
+      <c r="H108" s="80">
+        <v>0</v>
+      </c>
+      <c r="I108" s="81">
+        <v>0</v>
+      </c>
+      <c r="J108" s="82">
+        <v>0</v>
+      </c>
+      <c r="K108" s="82">
+        <v>0</v>
+      </c>
+      <c r="L108" s="83">
+        <v>0</v>
+      </c>
+      <c r="M108" s="83">
+        <v>0</v>
+      </c>
+      <c r="N108" s="84">
+        <v>0</v>
+      </c>
+      <c r="O108" s="84">
+        <v>0</v>
+      </c>
+      <c r="P108" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="84">
+        <v>0</v>
+      </c>
+      <c r="R108" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109" s="74"/>
+      <c r="B109" s="75"/>
+      <c r="C109" s="76"/>
+      <c r="D109" s="77">
+        <v>0</v>
+      </c>
+      <c r="E109" s="78">
+        <v>0</v>
+      </c>
+      <c r="F109" s="79">
+        <v>0</v>
+      </c>
+      <c r="G109" s="97">
+        <v>0</v>
+      </c>
+      <c r="H109" s="80">
+        <v>0</v>
+      </c>
+      <c r="I109" s="81">
+        <v>0</v>
+      </c>
+      <c r="J109" s="82">
+        <v>0</v>
+      </c>
+      <c r="K109" s="82">
+        <v>0</v>
+      </c>
+      <c r="L109" s="83">
+        <v>0</v>
+      </c>
+      <c r="M109" s="83">
+        <v>0</v>
+      </c>
+      <c r="N109" s="84">
+        <v>0</v>
+      </c>
+      <c r="O109" s="84">
+        <v>0</v>
+      </c>
+      <c r="P109" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="84">
+        <v>0</v>
+      </c>
+      <c r="R109" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="A110" s="74"/>
+      <c r="B110" s="75"/>
+      <c r="C110" s="76"/>
+      <c r="D110" s="77">
+        <v>0</v>
+      </c>
+      <c r="E110" s="78">
+        <v>0</v>
+      </c>
+      <c r="F110" s="79">
+        <v>0</v>
+      </c>
+      <c r="G110" s="97">
+        <v>0</v>
+      </c>
+      <c r="H110" s="80">
+        <v>0</v>
+      </c>
+      <c r="I110" s="81">
+        <v>0</v>
+      </c>
+      <c r="J110" s="82">
+        <v>0</v>
+      </c>
+      <c r="K110" s="82">
+        <v>0</v>
+      </c>
+      <c r="L110" s="83">
+        <v>0</v>
+      </c>
+      <c r="M110" s="83">
+        <v>0</v>
+      </c>
+      <c r="N110" s="84">
+        <v>0</v>
+      </c>
+      <c r="O110" s="84">
+        <v>0</v>
+      </c>
+      <c r="P110" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="84">
+        <v>0</v>
+      </c>
+      <c r="R110" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="A111" s="74"/>
+      <c r="B111" s="75"/>
+      <c r="C111" s="76"/>
+      <c r="D111" s="77">
+        <v>0</v>
+      </c>
+      <c r="E111" s="78">
+        <v>0</v>
+      </c>
+      <c r="F111" s="79">
+        <v>0</v>
+      </c>
+      <c r="G111" s="97">
+        <v>0</v>
+      </c>
+      <c r="H111" s="80">
+        <v>0</v>
+      </c>
+      <c r="I111" s="81">
+        <v>0</v>
+      </c>
+      <c r="J111" s="82">
+        <v>0</v>
+      </c>
+      <c r="K111" s="82">
+        <v>0</v>
+      </c>
+      <c r="L111" s="83">
+        <v>0</v>
+      </c>
+      <c r="M111" s="83">
+        <v>0</v>
+      </c>
+      <c r="N111" s="84">
+        <v>0</v>
+      </c>
+      <c r="O111" s="84">
+        <v>0</v>
+      </c>
+      <c r="P111" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="84">
+        <v>0</v>
+      </c>
+      <c r="R111" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="A112" s="74"/>
+      <c r="B112" s="75"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="77">
+        <v>0</v>
+      </c>
+      <c r="E112" s="78">
+        <v>0</v>
+      </c>
+      <c r="F112" s="79">
+        <v>0</v>
+      </c>
+      <c r="G112" s="97">
+        <v>0</v>
+      </c>
+      <c r="H112" s="80">
+        <v>0</v>
+      </c>
+      <c r="I112" s="81">
+        <v>0</v>
+      </c>
+      <c r="J112" s="82">
+        <v>0</v>
+      </c>
+      <c r="K112" s="82">
+        <v>0</v>
+      </c>
+      <c r="L112" s="83">
+        <v>0</v>
+      </c>
+      <c r="M112" s="83">
+        <v>0</v>
+      </c>
+      <c r="N112" s="84">
+        <v>0</v>
+      </c>
+      <c r="O112" s="84">
+        <v>0</v>
+      </c>
+      <c r="P112" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="84">
+        <v>0</v>
+      </c>
+      <c r="R112" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
+      <c r="A113" s="74"/>
+      <c r="B113" s="75"/>
+      <c r="C113" s="76"/>
+      <c r="D113" s="77">
+        <v>0</v>
+      </c>
+      <c r="E113" s="78">
+        <v>0</v>
+      </c>
+      <c r="F113" s="79">
+        <v>0</v>
+      </c>
+      <c r="G113" s="97">
+        <v>0</v>
+      </c>
+      <c r="H113" s="80">
+        <v>0</v>
+      </c>
+      <c r="I113" s="81">
+        <v>0</v>
+      </c>
+      <c r="J113" s="82">
+        <v>0</v>
+      </c>
+      <c r="K113" s="82">
+        <v>0</v>
+      </c>
+      <c r="L113" s="83">
+        <v>0</v>
+      </c>
+      <c r="M113" s="83">
+        <v>0</v>
+      </c>
+      <c r="N113" s="84">
+        <v>0</v>
+      </c>
+      <c r="O113" s="84">
+        <v>0</v>
+      </c>
+      <c r="P113" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="84">
+        <v>0</v>
+      </c>
+      <c r="R113" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
+      <c r="A114" s="74"/>
+      <c r="B114" s="75"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="77">
+        <v>0</v>
+      </c>
+      <c r="E114" s="78">
+        <v>0</v>
+      </c>
+      <c r="F114" s="79">
+        <v>0</v>
+      </c>
+      <c r="G114" s="97">
+        <v>0</v>
+      </c>
+      <c r="H114" s="80">
+        <v>0</v>
+      </c>
+      <c r="I114" s="81">
+        <v>0</v>
+      </c>
+      <c r="J114" s="82">
+        <v>0</v>
+      </c>
+      <c r="K114" s="82">
+        <v>0</v>
+      </c>
+      <c r="L114" s="83">
+        <v>0</v>
+      </c>
+      <c r="M114" s="83">
+        <v>0</v>
+      </c>
+      <c r="N114" s="84">
+        <v>0</v>
+      </c>
+      <c r="O114" s="84">
+        <v>0</v>
+      </c>
+      <c r="P114" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="84">
+        <v>0</v>
+      </c>
+      <c r="R114" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
+      <c r="A115" s="74"/>
+      <c r="B115" s="75"/>
+      <c r="C115" s="76"/>
+      <c r="D115" s="77">
+        <v>0</v>
+      </c>
+      <c r="E115" s="78">
+        <v>0</v>
+      </c>
+      <c r="F115" s="79">
+        <v>0</v>
+      </c>
+      <c r="G115" s="97">
+        <v>0</v>
+      </c>
+      <c r="H115" s="80">
+        <v>0</v>
+      </c>
+      <c r="I115" s="81">
+        <v>0</v>
+      </c>
+      <c r="J115" s="82">
+        <v>0</v>
+      </c>
+      <c r="K115" s="82">
+        <v>0</v>
+      </c>
+      <c r="L115" s="83">
+        <v>0</v>
+      </c>
+      <c r="M115" s="83">
+        <v>0</v>
+      </c>
+      <c r="N115" s="84">
+        <v>0</v>
+      </c>
+      <c r="O115" s="84">
+        <v>0</v>
+      </c>
+      <c r="P115" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="84">
+        <v>0</v>
+      </c>
+      <c r="R115" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
+      <c r="A116" s="74"/>
+      <c r="B116" s="75"/>
+      <c r="C116" s="76"/>
+      <c r="D116" s="77">
+        <v>0</v>
+      </c>
+      <c r="E116" s="78">
+        <v>0</v>
+      </c>
+      <c r="F116" s="79">
+        <v>0</v>
+      </c>
+      <c r="G116" s="97">
+        <v>0</v>
+      </c>
+      <c r="H116" s="80">
+        <v>0</v>
+      </c>
+      <c r="I116" s="81">
+        <v>0</v>
+      </c>
+      <c r="J116" s="82">
+        <v>0</v>
+      </c>
+      <c r="K116" s="82">
+        <v>0</v>
+      </c>
+      <c r="L116" s="83">
+        <v>0</v>
+      </c>
+      <c r="M116" s="83">
+        <v>0</v>
+      </c>
+      <c r="N116" s="84">
+        <v>0</v>
+      </c>
+      <c r="O116" s="84">
+        <v>0</v>
+      </c>
+      <c r="P116" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="84">
+        <v>0</v>
+      </c>
+      <c r="R116" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
+      <c r="A117" s="74"/>
+      <c r="B117" s="75"/>
+      <c r="C117" s="76"/>
+      <c r="D117" s="77">
+        <v>0</v>
+      </c>
+      <c r="E117" s="78">
+        <v>0</v>
+      </c>
+      <c r="F117" s="79">
+        <v>0</v>
+      </c>
+      <c r="G117" s="97">
+        <v>0</v>
+      </c>
+      <c r="H117" s="80">
+        <v>0</v>
+      </c>
+      <c r="I117" s="81">
+        <v>0</v>
+      </c>
+      <c r="J117" s="82">
+        <v>0</v>
+      </c>
+      <c r="K117" s="82">
+        <v>0</v>
+      </c>
+      <c r="L117" s="83">
+        <v>0</v>
+      </c>
+      <c r="M117" s="83">
+        <v>0</v>
+      </c>
+      <c r="N117" s="84">
+        <v>0</v>
+      </c>
+      <c r="O117" s="84">
+        <v>0</v>
+      </c>
+      <c r="P117" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="84">
+        <v>0</v>
+      </c>
+      <c r="R117" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
+      <c r="A118" s="74"/>
+      <c r="B118" s="75"/>
+      <c r="C118" s="76"/>
+      <c r="D118" s="77">
+        <v>0</v>
+      </c>
+      <c r="E118" s="78">
+        <v>0</v>
+      </c>
+      <c r="F118" s="79">
+        <v>0</v>
+      </c>
+      <c r="G118" s="97">
+        <v>0</v>
+      </c>
+      <c r="H118" s="80">
+        <v>0</v>
+      </c>
+      <c r="I118" s="81">
+        <v>0</v>
+      </c>
+      <c r="J118" s="82">
+        <v>0</v>
+      </c>
+      <c r="K118" s="82">
+        <v>0</v>
+      </c>
+      <c r="L118" s="83">
+        <v>0</v>
+      </c>
+      <c r="M118" s="83">
+        <v>0</v>
+      </c>
+      <c r="N118" s="84">
+        <v>0</v>
+      </c>
+      <c r="O118" s="84">
+        <v>0</v>
+      </c>
+      <c r="P118" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="84">
+        <v>0</v>
+      </c>
+      <c r="R118" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
+      <c r="A119" s="74"/>
+      <c r="B119" s="75"/>
+      <c r="C119" s="76"/>
+      <c r="D119" s="77">
+        <v>0</v>
+      </c>
+      <c r="E119" s="78">
+        <v>0</v>
+      </c>
+      <c r="F119" s="79">
+        <v>0</v>
+      </c>
+      <c r="G119" s="97">
+        <v>0</v>
+      </c>
+      <c r="H119" s="80">
+        <v>0</v>
+      </c>
+      <c r="I119" s="81">
+        <v>0</v>
+      </c>
+      <c r="J119" s="82">
+        <v>0</v>
+      </c>
+      <c r="K119" s="82">
+        <v>0</v>
+      </c>
+      <c r="L119" s="83">
+        <v>0</v>
+      </c>
+      <c r="M119" s="83">
+        <v>0</v>
+      </c>
+      <c r="N119" s="84">
+        <v>0</v>
+      </c>
+      <c r="O119" s="84">
+        <v>0</v>
+      </c>
+      <c r="P119" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="84">
+        <v>0</v>
+      </c>
+      <c r="R119" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
+      <c r="A120" s="74"/>
+      <c r="B120" s="75"/>
+      <c r="C120" s="76"/>
+      <c r="D120" s="77">
+        <v>0</v>
+      </c>
+      <c r="E120" s="78">
+        <v>0</v>
+      </c>
+      <c r="F120" s="79">
+        <v>0</v>
+      </c>
+      <c r="G120" s="97">
+        <v>0</v>
+      </c>
+      <c r="H120" s="80">
+        <v>0</v>
+      </c>
+      <c r="I120" s="81">
+        <v>0</v>
+      </c>
+      <c r="J120" s="82">
+        <v>0</v>
+      </c>
+      <c r="K120" s="82">
+        <v>0</v>
+      </c>
+      <c r="L120" s="83">
+        <v>0</v>
+      </c>
+      <c r="M120" s="83">
+        <v>0</v>
+      </c>
+      <c r="N120" s="84">
+        <v>0</v>
+      </c>
+      <c r="O120" s="84">
+        <v>0</v>
+      </c>
+      <c r="P120" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="84">
+        <v>0</v>
+      </c>
+      <c r="R120" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
+      <c r="A121" s="74"/>
+      <c r="B121" s="75"/>
+      <c r="C121" s="76"/>
+      <c r="D121" s="77">
+        <v>0</v>
+      </c>
+      <c r="E121" s="78">
+        <v>0</v>
+      </c>
+      <c r="F121" s="79">
+        <v>0</v>
+      </c>
+      <c r="G121" s="97">
+        <v>0</v>
+      </c>
+      <c r="H121" s="80">
+        <v>0</v>
+      </c>
+      <c r="I121" s="81">
+        <v>0</v>
+      </c>
+      <c r="J121" s="82">
+        <v>0</v>
+      </c>
+      <c r="K121" s="82">
+        <v>0</v>
+      </c>
+      <c r="L121" s="83">
+        <v>0</v>
+      </c>
+      <c r="M121" s="83">
+        <v>0</v>
+      </c>
+      <c r="N121" s="84">
+        <v>0</v>
+      </c>
+      <c r="O121" s="84">
+        <v>0</v>
+      </c>
+      <c r="P121" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="84">
+        <v>0</v>
+      </c>
+      <c r="R121" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
+      <c r="A122" s="74"/>
+      <c r="B122" s="75"/>
+      <c r="C122" s="76"/>
+      <c r="D122" s="77">
+        <v>0</v>
+      </c>
+      <c r="E122" s="78">
+        <v>0</v>
+      </c>
+      <c r="F122" s="79">
+        <v>0</v>
+      </c>
+      <c r="G122" s="97">
+        <v>0</v>
+      </c>
+      <c r="H122" s="80">
+        <v>0</v>
+      </c>
+      <c r="I122" s="81">
+        <v>0</v>
+      </c>
+      <c r="J122" s="82">
+        <v>0</v>
+      </c>
+      <c r="K122" s="82">
+        <v>0</v>
+      </c>
+      <c r="L122" s="83">
+        <v>0</v>
+      </c>
+      <c r="M122" s="83">
+        <v>0</v>
+      </c>
+      <c r="N122" s="84">
+        <v>0</v>
+      </c>
+      <c r="O122" s="84">
+        <v>0</v>
+      </c>
+      <c r="P122" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="84">
+        <v>0</v>
+      </c>
+      <c r="R122" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
+      <c r="A123" s="74"/>
+      <c r="B123" s="75"/>
+      <c r="C123" s="76"/>
+      <c r="D123" s="77">
+        <v>0</v>
+      </c>
+      <c r="E123" s="78">
+        <v>0</v>
+      </c>
+      <c r="F123" s="79">
+        <v>0</v>
+      </c>
+      <c r="G123" s="97">
+        <v>0</v>
+      </c>
+      <c r="H123" s="80">
+        <v>0</v>
+      </c>
+      <c r="I123" s="81">
+        <v>0</v>
+      </c>
+      <c r="J123" s="82">
+        <v>0</v>
+      </c>
+      <c r="K123" s="82">
+        <v>0</v>
+      </c>
+      <c r="L123" s="83">
+        <v>0</v>
+      </c>
+      <c r="M123" s="83">
+        <v>0</v>
+      </c>
+      <c r="N123" s="84">
+        <v>0</v>
+      </c>
+      <c r="O123" s="84">
+        <v>0</v>
+      </c>
+      <c r="P123" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="84">
+        <v>0</v>
+      </c>
+      <c r="R123" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
+      <c r="A124" s="74"/>
+      <c r="B124" s="75"/>
+      <c r="C124" s="76"/>
+      <c r="D124" s="77">
+        <v>0</v>
+      </c>
+      <c r="E124" s="78">
+        <v>0</v>
+      </c>
+      <c r="F124" s="79">
+        <v>0</v>
+      </c>
+      <c r="G124" s="97">
+        <v>0</v>
+      </c>
+      <c r="H124" s="80">
+        <v>0</v>
+      </c>
+      <c r="I124" s="81">
+        <v>0</v>
+      </c>
+      <c r="J124" s="82">
+        <v>0</v>
+      </c>
+      <c r="K124" s="82">
+        <v>0</v>
+      </c>
+      <c r="L124" s="83">
+        <v>0</v>
+      </c>
+      <c r="M124" s="83">
+        <v>0</v>
+      </c>
+      <c r="N124" s="84">
+        <v>0</v>
+      </c>
+      <c r="O124" s="84">
+        <v>0</v>
+      </c>
+      <c r="P124" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="84">
+        <v>0</v>
+      </c>
+      <c r="R124" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
+      <c r="A125" s="74"/>
+      <c r="B125" s="75"/>
+      <c r="C125" s="76"/>
+      <c r="D125" s="77">
+        <v>0</v>
+      </c>
+      <c r="E125" s="78">
+        <v>0</v>
+      </c>
+      <c r="F125" s="79">
+        <v>0</v>
+      </c>
+      <c r="G125" s="97">
+        <v>0</v>
+      </c>
+      <c r="H125" s="80">
+        <v>0</v>
+      </c>
+      <c r="I125" s="81">
+        <v>0</v>
+      </c>
+      <c r="J125" s="82">
+        <v>0</v>
+      </c>
+      <c r="K125" s="82">
+        <v>0</v>
+      </c>
+      <c r="L125" s="83">
+        <v>0</v>
+      </c>
+      <c r="M125" s="83">
+        <v>0</v>
+      </c>
+      <c r="N125" s="84">
+        <v>0</v>
+      </c>
+      <c r="O125" s="84">
+        <v>0</v>
+      </c>
+      <c r="P125" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="84">
+        <v>0</v>
+      </c>
+      <c r="R125" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
+      <c r="A126" s="74"/>
+      <c r="B126" s="75"/>
+      <c r="C126" s="76"/>
+      <c r="D126" s="77">
+        <v>0</v>
+      </c>
+      <c r="E126" s="78">
+        <v>0</v>
+      </c>
+      <c r="F126" s="79">
+        <v>0</v>
+      </c>
+      <c r="G126" s="97">
+        <v>0</v>
+      </c>
+      <c r="H126" s="80">
+        <v>0</v>
+      </c>
+      <c r="I126" s="81">
+        <v>0</v>
+      </c>
+      <c r="J126" s="82">
+        <v>0</v>
+      </c>
+      <c r="K126" s="82">
+        <v>0</v>
+      </c>
+      <c r="L126" s="83">
+        <v>0</v>
+      </c>
+      <c r="M126" s="83">
+        <v>0</v>
+      </c>
+      <c r="N126" s="84">
+        <v>0</v>
+      </c>
+      <c r="O126" s="84">
+        <v>0</v>
+      </c>
+      <c r="P126" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="84">
+        <v>0</v>
+      </c>
+      <c r="R126" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
+      <c r="A127" s="74"/>
+      <c r="B127" s="75"/>
+      <c r="C127" s="76"/>
+      <c r="D127" s="77">
+        <v>0</v>
+      </c>
+      <c r="E127" s="78">
+        <v>0</v>
+      </c>
+      <c r="F127" s="79">
+        <v>0</v>
+      </c>
+      <c r="G127" s="97">
+        <v>0</v>
+      </c>
+      <c r="H127" s="80">
+        <v>0</v>
+      </c>
+      <c r="I127" s="81">
+        <v>0</v>
+      </c>
+      <c r="J127" s="82">
+        <v>0</v>
+      </c>
+      <c r="K127" s="82">
+        <v>0</v>
+      </c>
+      <c r="L127" s="83">
+        <v>0</v>
+      </c>
+      <c r="M127" s="83">
+        <v>0</v>
+      </c>
+      <c r="N127" s="84">
+        <v>0</v>
+      </c>
+      <c r="O127" s="84">
+        <v>0</v>
+      </c>
+      <c r="P127" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="84">
+        <v>0</v>
+      </c>
+      <c r="R127" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
+      <c r="A128" s="74"/>
+      <c r="B128" s="75"/>
+      <c r="C128" s="76"/>
+      <c r="D128" s="77">
+        <v>0</v>
+      </c>
+      <c r="E128" s="78">
+        <v>0</v>
+      </c>
+      <c r="F128" s="79">
+        <v>0</v>
+      </c>
+      <c r="G128" s="97">
+        <v>0</v>
+      </c>
+      <c r="H128" s="80">
+        <v>0</v>
+      </c>
+      <c r="I128" s="81">
+        <v>0</v>
+      </c>
+      <c r="J128" s="82">
+        <v>0</v>
+      </c>
+      <c r="K128" s="82">
+        <v>0</v>
+      </c>
+      <c r="L128" s="83">
+        <v>0</v>
+      </c>
+      <c r="M128" s="83">
+        <v>0</v>
+      </c>
+      <c r="N128" s="84">
+        <v>0</v>
+      </c>
+      <c r="O128" s="84">
+        <v>0</v>
+      </c>
+      <c r="P128" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="84">
+        <v>0</v>
+      </c>
+      <c r="R128" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18">
+      <c r="A129" s="74"/>
+      <c r="B129" s="75"/>
+      <c r="C129" s="76"/>
+      <c r="D129" s="77">
+        <v>0</v>
+      </c>
+      <c r="E129" s="78">
+        <v>0</v>
+      </c>
+      <c r="F129" s="79">
+        <v>0</v>
+      </c>
+      <c r="G129" s="97">
+        <v>0</v>
+      </c>
+      <c r="H129" s="80">
+        <v>0</v>
+      </c>
+      <c r="I129" s="81">
+        <v>0</v>
+      </c>
+      <c r="J129" s="82">
+        <v>0</v>
+      </c>
+      <c r="K129" s="82">
+        <v>0</v>
+      </c>
+      <c r="L129" s="83">
+        <v>0</v>
+      </c>
+      <c r="M129" s="83">
+        <v>0</v>
+      </c>
+      <c r="N129" s="84">
+        <v>0</v>
+      </c>
+      <c r="O129" s="84">
+        <v>0</v>
+      </c>
+      <c r="P129" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="84">
+        <v>0</v>
+      </c>
+      <c r="R129" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18">
+      <c r="A130" s="74"/>
+      <c r="B130" s="75"/>
+      <c r="C130" s="76"/>
+      <c r="D130" s="77">
+        <v>0</v>
+      </c>
+      <c r="E130" s="78">
+        <v>0</v>
+      </c>
+      <c r="F130" s="79">
+        <v>0</v>
+      </c>
+      <c r="G130" s="97">
+        <v>0</v>
+      </c>
+      <c r="H130" s="80">
+        <v>0</v>
+      </c>
+      <c r="I130" s="81">
+        <v>0</v>
+      </c>
+      <c r="J130" s="82">
+        <v>0</v>
+      </c>
+      <c r="K130" s="82">
+        <v>0</v>
+      </c>
+      <c r="L130" s="83">
+        <v>0</v>
+      </c>
+      <c r="M130" s="83">
+        <v>0</v>
+      </c>
+      <c r="N130" s="84">
+        <v>0</v>
+      </c>
+      <c r="O130" s="84">
+        <v>0</v>
+      </c>
+      <c r="P130" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="84">
+        <v>0</v>
+      </c>
+      <c r="R130" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18">
+      <c r="A131" s="74"/>
+      <c r="B131" s="75"/>
+      <c r="C131" s="76"/>
+      <c r="D131" s="77">
+        <v>0</v>
+      </c>
+      <c r="E131" s="78">
+        <v>0</v>
+      </c>
+      <c r="F131" s="79">
+        <v>0</v>
+      </c>
+      <c r="G131" s="97">
+        <v>0</v>
+      </c>
+      <c r="H131" s="80">
+        <v>0</v>
+      </c>
+      <c r="I131" s="81">
+        <v>0</v>
+      </c>
+      <c r="J131" s="82">
+        <v>0</v>
+      </c>
+      <c r="K131" s="82">
+        <v>0</v>
+      </c>
+      <c r="L131" s="83">
+        <v>0</v>
+      </c>
+      <c r="M131" s="83">
+        <v>0</v>
+      </c>
+      <c r="N131" s="84">
+        <v>0</v>
+      </c>
+      <c r="O131" s="84">
+        <v>0</v>
+      </c>
+      <c r="P131" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="84">
+        <v>0</v>
+      </c>
+      <c r="R131" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18">
+      <c r="A132" s="74"/>
+      <c r="B132" s="75"/>
+      <c r="C132" s="76"/>
+      <c r="D132" s="77">
+        <v>0</v>
+      </c>
+      <c r="E132" s="78">
+        <v>0</v>
+      </c>
+      <c r="F132" s="79">
+        <v>0</v>
+      </c>
+      <c r="G132" s="97">
+        <v>0</v>
+      </c>
+      <c r="H132" s="80">
+        <v>0</v>
+      </c>
+      <c r="I132" s="81">
+        <v>0</v>
+      </c>
+      <c r="J132" s="82">
+        <v>0</v>
+      </c>
+      <c r="K132" s="82">
+        <v>0</v>
+      </c>
+      <c r="L132" s="83">
+        <v>0</v>
+      </c>
+      <c r="M132" s="83">
+        <v>0</v>
+      </c>
+      <c r="N132" s="84">
+        <v>0</v>
+      </c>
+      <c r="O132" s="84">
+        <v>0</v>
+      </c>
+      <c r="P132" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="84">
+        <v>0</v>
+      </c>
+      <c r="R132" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18">
+      <c r="A133" s="74"/>
+      <c r="B133" s="75"/>
+      <c r="C133" s="76"/>
+      <c r="D133" s="77">
+        <v>0</v>
+      </c>
+      <c r="E133" s="78">
+        <v>0</v>
+      </c>
+      <c r="F133" s="79">
+        <v>0</v>
+      </c>
+      <c r="G133" s="97">
+        <v>0</v>
+      </c>
+      <c r="H133" s="80">
+        <v>0</v>
+      </c>
+      <c r="I133" s="81">
+        <v>0</v>
+      </c>
+      <c r="J133" s="82">
+        <v>0</v>
+      </c>
+      <c r="K133" s="82">
+        <v>0</v>
+      </c>
+      <c r="L133" s="83">
+        <v>0</v>
+      </c>
+      <c r="M133" s="83">
+        <v>0</v>
+      </c>
+      <c r="N133" s="84">
+        <v>0</v>
+      </c>
+      <c r="O133" s="84">
+        <v>0</v>
+      </c>
+      <c r="P133" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="84">
+        <v>0</v>
+      </c>
+      <c r="R133" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18">
+      <c r="A134" s="74"/>
+      <c r="B134" s="75"/>
+      <c r="C134" s="76"/>
+      <c r="D134" s="77">
+        <v>0</v>
+      </c>
+      <c r="E134" s="78">
+        <v>0</v>
+      </c>
+      <c r="F134" s="79">
+        <v>0</v>
+      </c>
+      <c r="G134" s="97">
+        <v>0</v>
+      </c>
+      <c r="H134" s="80">
+        <v>0</v>
+      </c>
+      <c r="I134" s="81">
+        <v>0</v>
+      </c>
+      <c r="J134" s="82">
+        <v>0</v>
+      </c>
+      <c r="K134" s="82">
+        <v>0</v>
+      </c>
+      <c r="L134" s="83">
+        <v>0</v>
+      </c>
+      <c r="M134" s="83">
+        <v>0</v>
+      </c>
+      <c r="N134" s="84">
+        <v>0</v>
+      </c>
+      <c r="O134" s="84">
+        <v>0</v>
+      </c>
+      <c r="P134" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q134" s="84">
+        <v>0</v>
+      </c>
+      <c r="R134" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18">
+      <c r="A135" s="74"/>
+      <c r="B135" s="75"/>
+      <c r="C135" s="76"/>
+      <c r="D135" s="77">
+        <v>0</v>
+      </c>
+      <c r="E135" s="78">
+        <v>0</v>
+      </c>
+      <c r="F135" s="79">
+        <v>0</v>
+      </c>
+      <c r="G135" s="97">
+        <v>0</v>
+      </c>
+      <c r="H135" s="80">
+        <v>0</v>
+      </c>
+      <c r="I135" s="81">
+        <v>0</v>
+      </c>
+      <c r="J135" s="82">
+        <v>0</v>
+      </c>
+      <c r="K135" s="82">
+        <v>0</v>
+      </c>
+      <c r="L135" s="83">
+        <v>0</v>
+      </c>
+      <c r="M135" s="83">
+        <v>0</v>
+      </c>
+      <c r="N135" s="84">
+        <v>0</v>
+      </c>
+      <c r="O135" s="84">
+        <v>0</v>
+      </c>
+      <c r="P135" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="84">
+        <v>0</v>
+      </c>
+      <c r="R135" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18">
+      <c r="A136" s="74"/>
+      <c r="B136" s="75"/>
+      <c r="C136" s="76"/>
+      <c r="D136" s="77">
+        <v>0</v>
+      </c>
+      <c r="E136" s="78">
+        <v>0</v>
+      </c>
+      <c r="F136" s="79">
+        <v>0</v>
+      </c>
+      <c r="G136" s="97">
+        <v>0</v>
+      </c>
+      <c r="H136" s="80">
+        <v>0</v>
+      </c>
+      <c r="I136" s="81">
+        <v>0</v>
+      </c>
+      <c r="J136" s="82">
+        <v>0</v>
+      </c>
+      <c r="K136" s="82">
+        <v>0</v>
+      </c>
+      <c r="L136" s="83">
+        <v>0</v>
+      </c>
+      <c r="M136" s="83">
+        <v>0</v>
+      </c>
+      <c r="N136" s="84">
+        <v>0</v>
+      </c>
+      <c r="O136" s="84">
+        <v>0</v>
+      </c>
+      <c r="P136" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="84">
+        <v>0</v>
+      </c>
+      <c r="R136" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18">
+      <c r="A137" s="74"/>
+      <c r="B137" s="75"/>
+      <c r="C137" s="76"/>
+      <c r="D137" s="77">
+        <v>0</v>
+      </c>
+      <c r="E137" s="78">
+        <v>0</v>
+      </c>
+      <c r="F137" s="79">
+        <v>0</v>
+      </c>
+      <c r="G137" s="97">
+        <v>0</v>
+      </c>
+      <c r="H137" s="80">
+        <v>0</v>
+      </c>
+      <c r="I137" s="81">
+        <v>0</v>
+      </c>
+      <c r="J137" s="82">
+        <v>0</v>
+      </c>
+      <c r="K137" s="82">
+        <v>0</v>
+      </c>
+      <c r="L137" s="83">
+        <v>0</v>
+      </c>
+      <c r="M137" s="83">
+        <v>0</v>
+      </c>
+      <c r="N137" s="84">
+        <v>0</v>
+      </c>
+      <c r="O137" s="84">
+        <v>0</v>
+      </c>
+      <c r="P137" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="84">
+        <v>0</v>
+      </c>
+      <c r="R137" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18">
+      <c r="A138" s="74"/>
+      <c r="B138" s="75"/>
+      <c r="C138" s="76"/>
+      <c r="D138" s="77">
+        <v>0</v>
+      </c>
+      <c r="E138" s="78">
+        <v>0</v>
+      </c>
+      <c r="F138" s="79">
+        <v>0</v>
+      </c>
+      <c r="G138" s="97">
+        <v>0</v>
+      </c>
+      <c r="H138" s="80">
+        <v>0</v>
+      </c>
+      <c r="I138" s="81">
+        <v>0</v>
+      </c>
+      <c r="J138" s="82">
+        <v>0</v>
+      </c>
+      <c r="K138" s="82">
+        <v>0</v>
+      </c>
+      <c r="L138" s="83">
+        <v>0</v>
+      </c>
+      <c r="M138" s="83">
+        <v>0</v>
+      </c>
+      <c r="N138" s="84">
+        <v>0</v>
+      </c>
+      <c r="O138" s="84">
+        <v>0</v>
+      </c>
+      <c r="P138" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="84">
+        <v>0</v>
+      </c>
+      <c r="R138" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18">
+      <c r="A139" s="74"/>
+      <c r="B139" s="75"/>
+      <c r="C139" s="76"/>
+      <c r="D139" s="77">
+        <v>0</v>
+      </c>
+      <c r="E139" s="78">
+        <v>0</v>
+      </c>
+      <c r="F139" s="79">
+        <v>0</v>
+      </c>
+      <c r="G139" s="97">
+        <v>0</v>
+      </c>
+      <c r="H139" s="80">
+        <v>0</v>
+      </c>
+      <c r="I139" s="81">
+        <v>0</v>
+      </c>
+      <c r="J139" s="82">
+        <v>0</v>
+      </c>
+      <c r="K139" s="82">
+        <v>0</v>
+      </c>
+      <c r="L139" s="83">
+        <v>0</v>
+      </c>
+      <c r="M139" s="83">
+        <v>0</v>
+      </c>
+      <c r="N139" s="84">
+        <v>0</v>
+      </c>
+      <c r="O139" s="84">
+        <v>0</v>
+      </c>
+      <c r="P139" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q139" s="84">
+        <v>0</v>
+      </c>
+      <c r="R139" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18">
+      <c r="A140" s="74"/>
+      <c r="B140" s="75"/>
+      <c r="C140" s="76"/>
+      <c r="D140" s="77">
+        <v>0</v>
+      </c>
+      <c r="E140" s="78">
+        <v>0</v>
+      </c>
+      <c r="F140" s="79">
+        <v>0</v>
+      </c>
+      <c r="G140" s="97">
+        <v>0</v>
+      </c>
+      <c r="H140" s="80">
+        <v>0</v>
+      </c>
+      <c r="I140" s="81">
+        <v>0</v>
+      </c>
+      <c r="J140" s="82">
+        <v>0</v>
+      </c>
+      <c r="K140" s="82">
+        <v>0</v>
+      </c>
+      <c r="L140" s="83">
+        <v>0</v>
+      </c>
+      <c r="M140" s="83">
+        <v>0</v>
+      </c>
+      <c r="N140" s="84">
+        <v>0</v>
+      </c>
+      <c r="O140" s="84">
+        <v>0</v>
+      </c>
+      <c r="P140" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q140" s="84">
+        <v>0</v>
+      </c>
+      <c r="R140" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18">
+      <c r="A141" s="74"/>
+      <c r="B141" s="75"/>
+      <c r="C141" s="76"/>
+      <c r="D141" s="77">
+        <v>0</v>
+      </c>
+      <c r="E141" s="78">
+        <v>0</v>
+      </c>
+      <c r="F141" s="79">
+        <v>0</v>
+      </c>
+      <c r="G141" s="97">
+        <v>0</v>
+      </c>
+      <c r="H141" s="80">
+        <v>0</v>
+      </c>
+      <c r="I141" s="81">
+        <v>0</v>
+      </c>
+      <c r="J141" s="82">
+        <v>0</v>
+      </c>
+      <c r="K141" s="82">
+        <v>0</v>
+      </c>
+      <c r="L141" s="83">
+        <v>0</v>
+      </c>
+      <c r="M141" s="83">
+        <v>0</v>
+      </c>
+      <c r="N141" s="84">
+        <v>0</v>
+      </c>
+      <c r="O141" s="84">
+        <v>0</v>
+      </c>
+      <c r="P141" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q141" s="84">
+        <v>0</v>
+      </c>
+      <c r="R141" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18">
+      <c r="A142" s="74"/>
+      <c r="B142" s="75"/>
+      <c r="C142" s="76"/>
+      <c r="D142" s="77">
+        <v>0</v>
+      </c>
+      <c r="E142" s="78">
+        <v>0</v>
+      </c>
+      <c r="F142" s="79">
+        <v>0</v>
+      </c>
+      <c r="G142" s="97">
+        <v>0</v>
+      </c>
+      <c r="H142" s="80">
+        <v>0</v>
+      </c>
+      <c r="I142" s="81">
+        <v>0</v>
+      </c>
+      <c r="J142" s="82">
+        <v>0</v>
+      </c>
+      <c r="K142" s="82">
+        <v>0</v>
+      </c>
+      <c r="L142" s="83">
+        <v>0</v>
+      </c>
+      <c r="M142" s="83">
+        <v>0</v>
+      </c>
+      <c r="N142" s="84">
+        <v>0</v>
+      </c>
+      <c r="O142" s="84">
+        <v>0</v>
+      </c>
+      <c r="P142" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="84">
+        <v>0</v>
+      </c>
+      <c r="R142" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18">
+      <c r="A143" s="74"/>
+      <c r="B143" s="75"/>
+      <c r="C143" s="76"/>
+      <c r="D143" s="77">
+        <v>0</v>
+      </c>
+      <c r="E143" s="78">
+        <v>0</v>
+      </c>
+      <c r="F143" s="79">
+        <v>0</v>
+      </c>
+      <c r="G143" s="97">
+        <v>0</v>
+      </c>
+      <c r="H143" s="80">
+        <v>0</v>
+      </c>
+      <c r="I143" s="81">
+        <v>0</v>
+      </c>
+      <c r="J143" s="82">
+        <v>0</v>
+      </c>
+      <c r="K143" s="82">
+        <v>0</v>
+      </c>
+      <c r="L143" s="83">
+        <v>0</v>
+      </c>
+      <c r="M143" s="83">
+        <v>0</v>
+      </c>
+      <c r="N143" s="84">
+        <v>0</v>
+      </c>
+      <c r="O143" s="84">
+        <v>0</v>
+      </c>
+      <c r="P143" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="84">
+        <v>0</v>
+      </c>
+      <c r="R143" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18">
+      <c r="A144" s="74"/>
+      <c r="B144" s="75"/>
+      <c r="C144" s="76"/>
+      <c r="D144" s="77">
+        <v>0</v>
+      </c>
+      <c r="E144" s="78">
+        <v>0</v>
+      </c>
+      <c r="F144" s="79">
+        <v>0</v>
+      </c>
+      <c r="G144" s="97">
+        <v>0</v>
+      </c>
+      <c r="H144" s="80">
+        <v>0</v>
+      </c>
+      <c r="I144" s="81">
+        <v>0</v>
+      </c>
+      <c r="J144" s="82">
+        <v>0</v>
+      </c>
+      <c r="K144" s="82">
+        <v>0</v>
+      </c>
+      <c r="L144" s="83">
+        <v>0</v>
+      </c>
+      <c r="M144" s="83">
+        <v>0</v>
+      </c>
+      <c r="N144" s="84">
+        <v>0</v>
+      </c>
+      <c r="O144" s="84">
+        <v>0</v>
+      </c>
+      <c r="P144" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q144" s="84">
+        <v>0</v>
+      </c>
+      <c r="R144" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18">
+      <c r="A145" s="74"/>
+      <c r="B145" s="75"/>
+      <c r="C145" s="76"/>
+      <c r="D145" s="77">
+        <v>0</v>
+      </c>
+      <c r="E145" s="78">
+        <v>0</v>
+      </c>
+      <c r="F145" s="79">
+        <v>0</v>
+      </c>
+      <c r="G145" s="97">
+        <v>0</v>
+      </c>
+      <c r="H145" s="80">
+        <v>0</v>
+      </c>
+      <c r="I145" s="81">
+        <v>0</v>
+      </c>
+      <c r="J145" s="82">
+        <v>0</v>
+      </c>
+      <c r="K145" s="82">
+        <v>0</v>
+      </c>
+      <c r="L145" s="83">
+        <v>0</v>
+      </c>
+      <c r="M145" s="83">
+        <v>0</v>
+      </c>
+      <c r="N145" s="84">
+        <v>0</v>
+      </c>
+      <c r="O145" s="84">
+        <v>0</v>
+      </c>
+      <c r="P145" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="84">
+        <v>0</v>
+      </c>
+      <c r="R145" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18">
+      <c r="A146" s="74"/>
+      <c r="B146" s="75"/>
+      <c r="C146" s="76"/>
+      <c r="D146" s="77">
+        <v>0</v>
+      </c>
+      <c r="E146" s="78">
+        <v>0</v>
+      </c>
+      <c r="F146" s="79">
+        <v>0</v>
+      </c>
+      <c r="G146" s="97">
+        <v>0</v>
+      </c>
+      <c r="H146" s="80">
+        <v>0</v>
+      </c>
+      <c r="I146" s="81">
+        <v>0</v>
+      </c>
+      <c r="J146" s="82">
+        <v>0</v>
+      </c>
+      <c r="K146" s="82">
+        <v>0</v>
+      </c>
+      <c r="L146" s="83">
+        <v>0</v>
+      </c>
+      <c r="M146" s="83">
+        <v>0</v>
+      </c>
+      <c r="N146" s="84">
+        <v>0</v>
+      </c>
+      <c r="O146" s="84">
+        <v>0</v>
+      </c>
+      <c r="P146" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="84">
+        <v>0</v>
+      </c>
+      <c r="R146" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18">
+      <c r="A147" s="74"/>
+      <c r="B147" s="75"/>
+      <c r="C147" s="76"/>
+      <c r="D147" s="77">
+        <v>0</v>
+      </c>
+      <c r="E147" s="78">
+        <v>0</v>
+      </c>
+      <c r="F147" s="79">
+        <v>0</v>
+      </c>
+      <c r="G147" s="97">
+        <v>0</v>
+      </c>
+      <c r="H147" s="80">
+        <v>0</v>
+      </c>
+      <c r="I147" s="81">
+        <v>0</v>
+      </c>
+      <c r="J147" s="82">
+        <v>0</v>
+      </c>
+      <c r="K147" s="82">
+        <v>0</v>
+      </c>
+      <c r="L147" s="83">
+        <v>0</v>
+      </c>
+      <c r="M147" s="83">
+        <v>0</v>
+      </c>
+      <c r="N147" s="84">
+        <v>0</v>
+      </c>
+      <c r="O147" s="84">
+        <v>0</v>
+      </c>
+      <c r="P147" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="84">
+        <v>0</v>
+      </c>
+      <c r="R147" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18">
+      <c r="A148" s="74"/>
+      <c r="B148" s="75"/>
+      <c r="C148" s="76"/>
+      <c r="D148" s="77">
+        <v>0</v>
+      </c>
+      <c r="E148" s="78">
+        <v>0</v>
+      </c>
+      <c r="F148" s="79">
+        <v>0</v>
+      </c>
+      <c r="G148" s="97">
+        <v>0</v>
+      </c>
+      <c r="H148" s="80">
+        <v>0</v>
+      </c>
+      <c r="I148" s="81">
+        <v>0</v>
+      </c>
+      <c r="J148" s="82">
+        <v>0</v>
+      </c>
+      <c r="K148" s="82">
+        <v>0</v>
+      </c>
+      <c r="L148" s="83">
+        <v>0</v>
+      </c>
+      <c r="M148" s="83">
+        <v>0</v>
+      </c>
+      <c r="N148" s="84">
+        <v>0</v>
+      </c>
+      <c r="O148" s="84">
+        <v>0</v>
+      </c>
+      <c r="P148" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="84">
+        <v>0</v>
+      </c>
+      <c r="R148" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18">
+      <c r="A149" s="74"/>
+      <c r="B149" s="75"/>
+      <c r="C149" s="76"/>
+      <c r="D149" s="77">
+        <v>0</v>
+      </c>
+      <c r="E149" s="78">
+        <v>0</v>
+      </c>
+      <c r="F149" s="79">
+        <v>0</v>
+      </c>
+      <c r="G149" s="97">
+        <v>0</v>
+      </c>
+      <c r="H149" s="80">
+        <v>0</v>
+      </c>
+      <c r="I149" s="81">
+        <v>0</v>
+      </c>
+      <c r="J149" s="82">
+        <v>0</v>
+      </c>
+      <c r="K149" s="82">
+        <v>0</v>
+      </c>
+      <c r="L149" s="83">
+        <v>0</v>
+      </c>
+      <c r="M149" s="83">
+        <v>0</v>
+      </c>
+      <c r="N149" s="84">
+        <v>0</v>
+      </c>
+      <c r="O149" s="84">
+        <v>0</v>
+      </c>
+      <c r="P149" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q149" s="84">
+        <v>0</v>
+      </c>
+      <c r="R149" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18">
+      <c r="A150" s="74"/>
+      <c r="B150" s="75"/>
+      <c r="C150" s="76"/>
+      <c r="D150" s="77">
+        <v>0</v>
+      </c>
+      <c r="E150" s="78">
+        <v>0</v>
+      </c>
+      <c r="F150" s="79">
+        <v>0</v>
+      </c>
+      <c r="G150" s="97">
+        <v>0</v>
+      </c>
+      <c r="H150" s="80">
+        <v>0</v>
+      </c>
+      <c r="I150" s="81">
+        <v>0</v>
+      </c>
+      <c r="J150" s="82">
+        <v>0</v>
+      </c>
+      <c r="K150" s="82">
+        <v>0</v>
+      </c>
+      <c r="L150" s="83">
+        <v>0</v>
+      </c>
+      <c r="M150" s="83">
+        <v>0</v>
+      </c>
+      <c r="N150" s="84">
+        <v>0</v>
+      </c>
+      <c r="O150" s="84">
+        <v>0</v>
+      </c>
+      <c r="P150" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="84">
+        <v>0</v>
+      </c>
+      <c r="R150" s="85">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="D4:Q104">
+  <conditionalFormatting sqref="D4:Q150">
     <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:H104">
+  <conditionalFormatting sqref="G4:H150">
     <cfRule type="cellIs" dxfId="40" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/src/main/resources/ja/TestSpec.xlsx
+++ b/src/main/resources/ja/TestSpec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/ja/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E29A159-6004-4942-9E4F-1045DC9CE008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5C6ADC-7CD6-414C-9600-ACB5CD727A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21160" activeTab="1" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="79">
   <si>
     <t>OK</t>
     <phoneticPr fontId="5"/>
@@ -620,6 +620,10 @@
   <si>
     <t>A+CA+M</t>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>mode</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2126,31 +2130,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18F45A1-E8E7-6045-B22A-269DB8A60478}">
-  <dimension ref="A3:L3"/>
+  <dimension ref="A3:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="98" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" style="98" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="98" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="98" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="98" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="98" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="98" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" style="98" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="98" customWidth="1"/>
-    <col min="10" max="10" width="51.7109375" style="98" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="98" customWidth="1"/>
-    <col min="12" max="12" width="43" style="98" customWidth="1"/>
-    <col min="13" max="16384" width="10.7109375" style="98"/>
+    <col min="3" max="4" width="10.140625" style="98" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="98" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="98" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="98" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="98" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="98" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="98" customWidth="1"/>
+    <col min="11" max="11" width="51.7109375" style="98" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="98" customWidth="1"/>
+    <col min="13" max="13" width="43" style="98" customWidth="1"/>
+    <col min="14" max="16384" width="10.7109375" style="98"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="98" t="s">
         <v>24</v>
       </c>
@@ -2161,30 +2165,33 @@
         <v>26</v>
       </c>
       <c r="D3" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="98" t="s">
+      <c r="F3" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="G3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="H3" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="98" t="s">
+      <c r="I3" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="98" t="s">
+      <c r="J3" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="K3" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="98" t="s">
+      <c r="L3" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="98" t="s">
+      <c r="M3" s="98" t="s">
         <v>33</v>
       </c>
     </row>
@@ -9651,7 +9658,7 @@
       <pane xSplit="4" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.28515625" defaultRowHeight="14" outlineLevelRow="1"/>
@@ -9704,6 +9711,10 @@
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="I2" s="16"/>
+      <c r="J2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="24"/>
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -9719,10 +9730,10 @@
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="24"/>
+      <c r="J3" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="27"/>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
@@ -33035,6 +33046,10 @@
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="I2" s="16"/>
+      <c r="J2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="24"/>
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -33050,10 +33065,10 @@
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="24"/>
+      <c r="J3" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="27"/>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>

--- a/src/main/resources/ja/TestSpec.xlsx
+++ b/src/main/resources/ja/TestSpec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/ja/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5C6ADC-7CD6-414C-9600-ACB5CD727A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBE2762-E3FF-CD4C-9554-44CF15A1C0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21160" activeTab="1" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
   <si>
     <t>OK</t>
     <phoneticPr fontId="5"/>
@@ -623,6 +623,10 @@
   </si>
   <si>
     <t>mode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>auto</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2130,7 +2134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18F45A1-E8E7-6045-B22A-269DB8A60478}">
-  <dimension ref="A3:M3"/>
+  <dimension ref="A3:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -2143,18 +2147,19 @@
     <col min="2" max="2" width="23.7109375" style="98" customWidth="1"/>
     <col min="3" max="4" width="10.140625" style="98" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="98" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" style="98" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="98" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="98" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" style="98" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="98" customWidth="1"/>
-    <col min="11" max="11" width="51.7109375" style="98" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="98" customWidth="1"/>
-    <col min="13" max="13" width="43" style="98" customWidth="1"/>
-    <col min="14" max="16384" width="10.7109375" style="98"/>
+    <col min="6" max="6" width="5.28515625" style="98" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="98" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="98" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="98" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="98" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="98" customWidth="1"/>
+    <col min="12" max="12" width="51.7109375" style="98" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="98" customWidth="1"/>
+    <col min="14" max="14" width="43" style="98" customWidth="1"/>
+    <col min="15" max="16384" width="10.7109375" style="98"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="98" t="s">
         <v>24</v>
       </c>
@@ -2171,27 +2176,30 @@
         <v>27</v>
       </c>
       <c r="F3" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="H3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="98" t="s">
+      <c r="I3" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="98" t="s">
+      <c r="J3" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="K3" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="98" t="s">
+      <c r="L3" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="98" t="s">
+      <c r="M3" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="98" t="s">
+      <c r="N3" s="98" t="s">
         <v>33</v>
       </c>
     </row>

--- a/src/main/resources/ja/TestSpec.xlsx
+++ b/src/main/resources/ja/TestSpec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/ja/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F64074-02B3-0D42-8152-E23F5ABB8CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8776289-55D8-7E49-8B0E-AAA70564D47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34880" yWindow="860" windowWidth="35360" windowHeight="36520" activeTab="1" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="85">
   <si>
     <t>OK</t>
     <phoneticPr fontId="5"/>
@@ -656,6 +656,18 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>A/CA</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -666,7 +678,7 @@
     <numFmt numFmtId="177" formatCode="m/d;@"/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -794,6 +806,12 @@
       <color theme="0"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1238,7 +1256,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1574,6 +1592,15 @@
     <xf numFmtId="178" fontId="10" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="10" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="10" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1582,7 +1609,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{C40AA10B-FA57-1748-8D8E-3E12991DC054}"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="87">
     <dxf>
       <fill>
         <patternFill>
@@ -1628,35 +1655,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEE82EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1719,7 +1718,28 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEE82EE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1733,14 +1753,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
+          <bgColor rgb="FFCCCCFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1803,7 +1823,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBDD7EE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1833,6 +1860,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBDD7EE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1881,27 +1915,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFBDD7EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBDD7EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBDD7EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFA0D8EF"/>
         </patternFill>
       </fill>
@@ -1944,14 +1957,28 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFBDD7EE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor rgb="FFBDD7EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEE82EE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2000,14 +2027,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFEE82EE"/>
+          <bgColor rgb="FFBDD7EE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFBDD7EE"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2035,7 +2062,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2119,6 +2146,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFBDD7EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2126,7 +2160,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor rgb="FFBDD7EE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2597,8 +2631,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="22">
-      <c r="A1" s="127"/>
-      <c r="B1" s="127"/>
+      <c r="A1" s="130"/>
+      <c r="B1" s="130"/>
       <c r="C1" s="9" t="s">
         <v>17</v>
       </c>
@@ -2623,7 +2657,7 @@
       <c r="I3" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="128" t="s">
         <v>71</v>
       </c>
       <c r="K3" s="56" t="s">
@@ -10163,12 +10197,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D4:R150">
-    <cfRule type="cellIs" dxfId="85" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H150">
-    <cfRule type="cellIs" dxfId="84" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10210,9 +10244,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="4" customFormat="1" ht="22">
-      <c r="A1" s="127"/>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
+      <c r="A1" s="130"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
       <c r="F1" s="80"/>
@@ -10240,14 +10274,14 @@
         <v>12</v>
       </c>
       <c r="H2" s="23"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="116" t="s">
+      <c r="I2" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="J2" s="23"/>
+      <c r="L2" s="116" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="23"/>
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
       <c r="Q2" s="16"/>
@@ -10263,14 +10297,14 @@
         <v>1</v>
       </c>
       <c r="H3" s="26"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="25" t="s">
+      <c r="I3" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
+      <c r="J3" s="26"/>
+      <c r="L3" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="29"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="16"/>
@@ -10286,14 +10320,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="26"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="25" t="s">
+      <c r="I4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="J4" s="26"/>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="16"/>
@@ -10309,14 +10339,14 @@
         <v>52</v>
       </c>
       <c r="H5" s="26"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="25" t="s">
+      <c r="I5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="J5" s="26"/>
+      <c r="L5" s="127" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="23"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="16"/>
@@ -10330,14 +10360,14 @@
         <v>79</v>
       </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="122" t="s">
+      <c r="I6" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="J6" s="29"/>
+      <c r="L6" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="29"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="16"/>
@@ -10347,10 +10377,10 @@
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
-      <c r="J7" s="30" t="s">
+      <c r="I7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="31"/>
+      <c r="J7" s="31"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
@@ -33437,170 +33467,175 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="notContainsBlanks" dxfId="83" priority="126">
+    <cfRule type="notContainsBlanks" dxfId="84" priority="128">
       <formula>LEN(TRIM(E1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="82" priority="113" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="83" priority="115" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="112" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="82" priority="114" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G1009">
-    <cfRule type="containsText" dxfId="80" priority="110" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="81" priority="112" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",G13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="109" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="80" priority="111" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",G13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="cellIs" dxfId="78" priority="98" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="100" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="77" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="127" operator="equal">
+      <formula>"M"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="77" priority="113" operator="equal">
       <formula>"手動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I1009">
-    <cfRule type="cellIs" dxfId="76" priority="111" operator="equal">
-      <formula>"手動"</formula>
+  <conditionalFormatting sqref="I14:I1009">
+    <cfRule type="cellIs" dxfId="76" priority="1" operator="equal">
+      <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10 J12:J13">
-    <cfRule type="containsText" dxfId="75" priority="108" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="75" priority="110" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="107" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="74" priority="109" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="106" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="73" priority="108" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",J10)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="107" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="105" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="103" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="77" stopIfTrue="1" operator="equal">
       <formula>"手動で実施"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="75" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="74" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J1009">
-    <cfRule type="cellIs" dxfId="66" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="40" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="65" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="42" stopIfTrue="1" operator="equal">
+      <formula>"MANUAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="35" stopIfTrue="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="39" stopIfTrue="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="37" stopIfTrue="1" operator="equal">
+      <formula>"SUSPENDED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="41" stopIfTrue="1" operator="equal">
+      <formula>"COND_AUTO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="34" stopIfTrue="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="43" stopIfTrue="1" operator="equal">
       <formula>"手動で実施"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="36" stopIfTrue="1" operator="equal">
-      <formula>"保留"</formula>
+    <cfRule type="containsText" dxfId="58" priority="44" stopIfTrue="1" operator="containsText" text="SKIP">
+      <formula>NOT(ISERROR(SEARCH("SKIP",J11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="37" stopIfTrue="1" operator="equal">
-      <formula>"N/A"</formula>
+    <cfRule type="containsText" dxfId="57" priority="45" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+      <formula>NOT(ISERROR(SEARCH("NOTIMPL",J11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="35" stopIfTrue="1" operator="equal">
-      <formula>"SUSPENDED"</formula>
+    <cfRule type="cellIs" dxfId="56" priority="46" stopIfTrue="1" operator="equal">
+      <formula>"EXCLUDED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="39" stopIfTrue="1" operator="equal">
-      <formula>"COND_AUTO"</formula>
+    <cfRule type="cellIs" dxfId="55" priority="47" stopIfTrue="1" operator="equal">
+      <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="40" stopIfTrue="1" operator="equal">
-      <formula>"MANUAL"</formula>
+    <cfRule type="cellIs" dxfId="54" priority="48" stopIfTrue="1" operator="equal">
+      <formula>"DELETED"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="34" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="cellIs" dxfId="53" priority="49" stopIfTrue="1" operator="equal">
+      <formula>"削除予定"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="36" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="42" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",J11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="43" stopIfTrue="1" operator="containsText" text="NOTIMPL">
-      <formula>NOT(ISERROR(SEARCH("NOTIMPL",J11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="44" stopIfTrue="1" operator="equal">
-      <formula>"EXCLUDED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="45" stopIfTrue="1" operator="equal">
-      <formula>"実施対象外"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="46" stopIfTrue="1" operator="equal">
-      <formula>"DELETED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="47" stopIfTrue="1" operator="equal">
-      <formula>"削除予定"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="33" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="32" stopIfTrue="1" operator="equal">
-      <formula>"OK"</formula>
+    <cfRule type="cellIs" dxfId="51" priority="38" stopIfTrue="1" operator="equal">
+      <formula>"保留"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:J1009">
-    <cfRule type="cellIs" dxfId="50" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"MANUAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"COND_AUTO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="17" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="16" stopIfTrue="1" operator="equal">
       <formula>"DELETED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="15" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="14" stopIfTrue="1" operator="equal">
       <formula>"EXCLUDED"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="11" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="44" priority="13" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",J14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="10" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="43" priority="12" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",J14)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"保留"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"SUSPENDED"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="5" stopIfTrue="1" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",J14)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="11" stopIfTrue="1" operator="equal">
       <formula>"手動で実施"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"MANUAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"COND_AUTO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"保留"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"SUSPENDED"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="3" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",J14)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10:J1009" xr:uid="{A15D5818-FD17-8D46-B5D7-39F5DAB9A650}">
       <formula1>実施結果</formula1>
     </dataValidation>
@@ -33646,9 +33681,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="4" customFormat="1" ht="22">
-      <c r="A1" s="127"/>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
+      <c r="A1" s="130"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
       <c r="F1" s="80"/>
@@ -33676,14 +33711,15 @@
         <v>12</v>
       </c>
       <c r="H2" s="23"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="116" t="s">
+      <c r="I2" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="116" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="23"/>
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
       <c r="Q2" s="16"/>
@@ -33699,14 +33735,15 @@
         <v>1</v>
       </c>
       <c r="H3" s="26"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="25" t="s">
+      <c r="I3" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="29"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="16"/>
@@ -33722,14 +33759,11 @@
         <v>2</v>
       </c>
       <c r="H4" s="26"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="25" t="s">
+      <c r="I4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="16"/>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="16"/>
@@ -33745,14 +33779,15 @@
         <v>52</v>
       </c>
       <c r="H5" s="26"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="25" t="s">
+      <c r="I5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="127" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="23"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="16"/>
@@ -33766,14 +33801,15 @@
         <v>79</v>
       </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="122" t="s">
+      <c r="I6" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="29"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="16"/>
@@ -33783,13 +33819,13 @@
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
-      <c r="J7" s="30" t="s">
+      <c r="I7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="16"/>
@@ -56873,107 +56909,107 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="notContainsBlanks" dxfId="35" priority="85">
+    <cfRule type="notContainsBlanks" dxfId="35" priority="86">
       <formula>LEN(TRIM(E1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G1009">
-    <cfRule type="containsText" dxfId="34" priority="59" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="34" priority="60" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="58" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="33" priority="59" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="cellIs" dxfId="32" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="57" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I1009">
-    <cfRule type="cellIs" dxfId="31" priority="82" operator="equal">
-      <formula>"手動"</formula>
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+      <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="30" priority="69" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="cellIs" dxfId="30" priority="58" stopIfTrue="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="70" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="68" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="28" priority="69" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="67" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="27" priority="68" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",J10)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="67" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="66" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="65" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="62" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="61" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="57" stopIfTrue="1" operator="equal">
-      <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J1009">
-    <cfRule type="cellIs" dxfId="21" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="8" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J1009">
-    <cfRule type="cellIs" dxfId="20" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"保留"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="17" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="15" stopIfTrue="1" operator="equal">
-      <formula>"DELETED"</formula>
+    <cfRule type="containsText" dxfId="18" priority="4" stopIfTrue="1" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",J11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"SUSPENDED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
       <formula>"EXCLUDED"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="12" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="12" priority="13" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="11" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="11" priority="12" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",J11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
       <formula>"手動で実施"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="equal">
       <formula>"COND_AUTO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"保留"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"SUSPENDED"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="3" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",J11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"OK"</formula>
+    <cfRule type="cellIs" dxfId="6" priority="16" stopIfTrue="1" operator="equal">
+      <formula>"DELETED"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">

--- a/src/main/resources/ja/TestSpec.xlsx
+++ b/src/main/resources/ja/TestSpec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/ja/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8776289-55D8-7E49-8B0E-AAA70564D47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46550DE6-6F9C-344E-8314-F110844F60D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34880" yWindow="860" windowWidth="35360" windowHeight="36520" activeTab="1" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
   <si>
     <t>OK</t>
     <phoneticPr fontId="5"/>
@@ -666,6 +666,14 @@
   </si>
   <si>
     <t>A/CA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>environment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>supplement</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2536,7 +2544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18F45A1-E8E7-6045-B22A-269DB8A60478}">
-  <dimension ref="A3:N3"/>
+  <dimension ref="A3:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -2550,18 +2558,19 @@
     <col min="3" max="4" width="10.140625" style="92" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="92" customWidth="1"/>
     <col min="6" max="6" width="5.28515625" style="92" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="92" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="92" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="92" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" style="92" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="92" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" style="92" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" style="92" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" style="92" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="92" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="92" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" style="92" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" style="92" customWidth="1"/>
-    <col min="14" max="14" width="43" style="92" customWidth="1"/>
-    <col min="15" max="16384" width="10.7109375" style="92"/>
+    <col min="14" max="14" width="51.7109375" style="92" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="92" customWidth="1"/>
+    <col min="16" max="16" width="43" style="92" customWidth="1"/>
+    <col min="17" max="16384" width="10.7109375" style="92"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3" s="92" t="s">
         <v>21</v>
       </c>
@@ -2581,27 +2590,33 @@
         <v>75</v>
       </c>
       <c r="G3" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="J3" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="92" t="s">
+      <c r="K3" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="92" t="s">
+      <c r="L3" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="92" t="s">
+      <c r="M3" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="92" t="s">
+      <c r="N3" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="92" t="s">
+      <c r="O3" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="92" t="s">
+      <c r="P3" s="92" t="s">
         <v>30</v>
       </c>
     </row>
@@ -10477,7 +10492,7 @@
       <c r="J10" s="98"/>
       <c r="K10" s="93"/>
       <c r="L10" s="95"/>
-      <c r="M10" s="93"/>
+      <c r="M10" s="98"/>
       <c r="N10" s="95"/>
       <c r="O10" s="38"/>
       <c r="P10" s="93"/>
@@ -33919,7 +33934,7 @@
       <c r="J10" s="98"/>
       <c r="K10" s="93"/>
       <c r="L10" s="95"/>
-      <c r="M10" s="93"/>
+      <c r="M10" s="98"/>
       <c r="N10" s="95"/>
       <c r="O10" s="38"/>
       <c r="P10" s="93"/>
